--- a/targets.xlsx
+++ b/targets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\stock-explorer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19B8F3D-4909-4A9E-BC11-4702D5F6A96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BEC7B0-F4AA-4F9C-85B4-4B5462B12488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47370" yWindow="330" windowWidth="13200" windowHeight="15450" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
+    <workbookView xWindow="47760" yWindow="300" windowWidth="13200" windowHeight="15450" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -321,9 +321,9 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.03038070bb2240fd8f58b38b580efcb2">
+    <main first="rtdsrv.2c6370c310b941fdafd9f6360c78d023">
       <tp t="s">
-        <v>2025/05/29</v>
+        <v>2025/06/02</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -332,7 +332,7 @@
         <tr r="C2" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/05/29</v>
+        <v>2025/06/02</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -341,7 +341,7 @@
         <tr r="C3" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/05/29</v>
+        <v>2025/06/02</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -349,8 +349,10 @@
         <stp>現在日付</stp>
         <tr r="C4" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.2c6370c310b941fdafd9f6360c78d023">
       <tp t="s">
-        <v>15:30:00</v>
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -359,7 +361,7 @@
         <tr r="D2" s="1"/>
       </tp>
       <tp t="s">
-        <v>15:30:00</v>
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -367,8 +369,10 @@
         <stp>現在値詳細時刻</stp>
         <tr r="D3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.2c6370c310b941fdafd9f6360c78d023">
       <tp>
-        <v>3266</v>
+        <v>3352</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -377,7 +381,7 @@
         <tr r="F2" s="1"/>
       </tp>
       <tp>
-        <v>1963</v>
+        <v>2025.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -386,7 +390,7 @@
         <tr r="F4" s="1"/>
       </tp>
       <tp>
-        <v>2631.5</v>
+        <v>2769</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -395,7 +399,7 @@
         <tr r="F3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.03038070bb2240fd8f58b38b580efcb2">
+    <main first="rtdsrv.2c6370c310b941fdafd9f6360c78d023">
       <tp t="s">
         <v>三菱重工業</v>
         <stp/>
@@ -415,6 +419,15 @@
         <tr r="B4" s="1"/>
       </tp>
       <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+      <tp t="s">
         <v>トヨタ自動車</v>
         <stp/>
         <stp>Market</stp>
@@ -423,19 +436,10 @@
         <stp>銘柄名称</stp>
         <tr r="B3" s="1"/>
       </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
     </main>
-    <main first="rtdsrv.03038070bb2240fd8f58b38b580efcb2">
+    <main first="rtdsrv.2c6370c310b941fdafd9f6360c78d023">
       <tp>
-        <v>3299</v>
+        <v>3343</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -444,7 +448,7 @@
         <tr r="E2" s="1"/>
       </tp>
       <tp>
-        <v>2734.5</v>
+        <v>2694.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -452,10 +456,8 @@
         <stp>現在値</stp>
         <tr r="E3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.03038070bb2240fd8f58b38b580efcb2">
       <tp>
-        <v>2005</v>
+        <v>1986.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -789,7 +791,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -822,7 +824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="23.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -832,22 +834,22 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/05/29</v>
+        <v>2025/06/02</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3299</v>
+        <v>3343</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3266</v>
+        <v>3352</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="23.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -857,22 +859,22 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/05/29</v>
+        <v>2025/06/02</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2734.5</v>
+        <v>2694.5</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2631.5</v>
+        <v>2769</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="23.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -882,22 +884,22 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/05/29</v>
+        <v>2025/06/02</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>2005</v>
+        <v>1986.5</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1963</v>
+        <v>2025.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" ht="23.25">
+    <row r="5" spans="1:6" s="6" customFormat="1">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
@@ -917,7 +919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="23.25">
+    <row r="7" spans="1:6">
       <c r="B7" s="15"/>
     </row>
   </sheetData>

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BEC7B0-F4AA-4F9C-85B4-4B5462B12488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E23BCF-C98C-485A-AEC3-440EB250C992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47760" yWindow="300" windowWidth="13200" windowHeight="15450" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -321,9 +321,31 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.2c6370c310b941fdafd9f6360c78d023">
+    <main first="rtdsrv.646dd901c85a4a31a81b2b4827f44501">
       <tp t="s">
-        <v>2025/06/02</v>
+        <v>2025/06/03</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.646dd901c85a4a31a81b2b4827f44501">
+      <tp t="s">
+        <v>2025/06/03</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.646dd901c85a4a31a81b2b4827f44501">
+      <tp t="s">
+        <v>2025/06/03</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -331,26 +353,17 @@
         <stp>現在日付</stp>
         <tr r="C2" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.646dd901c85a4a31a81b2b4827f44501">
       <tp t="s">
-        <v>2025/06/02</v>
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/02</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.2c6370c310b941fdafd9f6360c78d023">
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
       <tp t="s">
         <v>15:24:59</v>
         <stp/>
@@ -360,19 +373,28 @@
         <stp>現在値詳細時刻</stp>
         <tr r="D2" s="1"/>
       </tp>
-      <tp t="s">
-        <v>15:24:59</v>
+      <tp>
+        <v>2691</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>1990</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.2c6370c310b941fdafd9f6360c78d023">
+    <main first="rtdsrv.646dd901c85a4a31a81b2b4827f44501">
       <tp>
-        <v>3352</v>
+        <v>3340</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -380,26 +402,39 @@
         <stp>前日終値</stp>
         <tr r="F2" s="1"/>
       </tp>
-      <tp>
-        <v>2025.5</v>
+    </main>
+    <main first="rtdsrv.646dd901c85a4a31a81b2b4827f44501">
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.646dd901c85a4a31a81b2b4827f44501">
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp>
-        <v>2769</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.2c6370c310b941fdafd9f6360c78d023">
+    <main first="rtdsrv.646dd901c85a4a31a81b2b4827f44501">
       <tp t="s">
         <v>三菱重工業</v>
         <stp/>
@@ -409,37 +444,19 @@
         <stp>銘柄名称</stp>
         <tr r="B2" s="1"/>
       </tp>
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
+    </main>
+    <main first="rtdsrv.646dd901c85a4a31a81b2b4827f44501">
+      <tp>
+        <v>2679</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.2c6370c310b941fdafd9f6360c78d023">
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
       <tp>
-        <v>3343</v>
+        <v>3368</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -447,17 +464,10 @@
         <stp>現在値</stp>
         <tr r="E2" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.646dd901c85a4a31a81b2b4827f44501">
       <tp>
-        <v>2694.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>1986.5</v>
+        <v>1980.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -834,7 +844,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/06/02</v>
+        <v>2025/06/03</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -842,11 +852,11 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3343</v>
+        <v>3368</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3352</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -859,7 +869,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/06/02</v>
+        <v>2025/06/03</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -867,11 +877,11 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2694.5</v>
+        <v>2679</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2769</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -884,7 +894,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/06/02</v>
+        <v>2025/06/03</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -892,11 +902,11 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1986.5</v>
+        <v>1980.5</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>2025.5</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1">

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E23BCF-C98C-485A-AEC3-440EB250C992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC32371B-B763-4AF3-BBAB-53B8F32C63FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47760" yWindow="300" windowWidth="13200" windowHeight="15450" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -321,9 +321,27 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.646dd901c85a4a31a81b2b4827f44501">
+    <main first="rtdsrv.143b54f222c542e9bca39f46ca3053cf">
       <tp t="s">
-        <v>2025/06/03</v>
+        <v>2025/06/04</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/04</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/04</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -332,31 +350,78 @@
         <tr r="C4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.646dd901c85a4a31a81b2b4827f44501">
+    <main first="rtdsrv.143b54f222c542e9bca39f46ca3053cf">
+      <tp>
+        <v>3416</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp>
+        <v>2724.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.143b54f222c542e9bca39f46ca3053cf">
+      <tp>
+        <v>1980.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.143b54f222c542e9bca39f46ca3053cf">
       <tp t="s">
-        <v>2025/06/03</v>
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>トヨタ自動車</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.646dd901c85a4a31a81b2b4827f44501">
+    <main first="rtdsrv.143b54f222c542e9bca39f46ca3053cf">
       <tp t="s">
-        <v>2025/06/03</v>
+        <v>15:30:00</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>70110.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.646dd901c85a4a31a81b2b4827f44501">
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
       <tp t="s">
-        <v>15:24:59</v>
+        <v>15:30:00</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -365,115 +430,40 @@
         <tr r="D3" s="1"/>
       </tp>
       <tp t="s">
-        <v>15:24:59</v>
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+      <tp>
+        <v>3364</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
       </tp>
       <tp>
-        <v>2691</v>
+        <v>1977</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp>
+        <v>2675</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
         <stp>前日終値</stp>
         <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>1990</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.646dd901c85a4a31a81b2b4827f44501">
-      <tp>
-        <v>3340</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.646dd901c85a4a31a81b2b4827f44501">
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.646dd901c85a4a31a81b2b4827f44501">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.646dd901c85a4a31a81b2b4827f44501">
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.646dd901c85a4a31a81b2b4827f44501">
-      <tp>
-        <v>2679</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>3368</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.646dd901c85a4a31a81b2b4827f44501">
-      <tp>
-        <v>1980.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
       </tp>
     </main>
   </volType>
@@ -844,19 +834,19 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/06/03</v>
+        <v>2025/06/04</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3368</v>
+        <v>3416</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3340</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -869,19 +859,19 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/06/03</v>
+        <v>2025/06/04</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2679</v>
+        <v>2724.5</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2691</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -894,11 +884,11 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/06/03</v>
+        <v>2025/06/04</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
@@ -906,7 +896,7 @@
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1990</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1">

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC32371B-B763-4AF3-BBAB-53B8F32C63FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8272EB1-503D-424E-9B72-9126B645DFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47760" yWindow="300" windowWidth="13200" windowHeight="15450" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
+    <workbookView xWindow="15765" yWindow="15" windowWidth="13065" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,9 +321,9 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.143b54f222c542e9bca39f46ca3053cf">
+    <main first="rtdsrv.0c380e1b350d4dbc81ebb6f5a588fe00">
       <tp t="s">
-        <v>2025/06/04</v>
+        <v>2025/06/05</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -332,7 +332,16 @@
         <tr r="C2" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/06/04</v>
+        <v>2025/06/05</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/05</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -340,19 +349,55 @@
         <stp>現在日付</stp>
         <tr r="C3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.0c380e1b350d4dbc81ebb6f5a588fe00">
+      <tp>
+        <v>1953</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
       <tp t="s">
-        <v>2025/06/04</v>
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.143b54f222c542e9bca39f46ca3053cf">
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
       <tp>
         <v>3416</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+      <tp>
+        <v>3335</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -361,7 +406,7 @@
         <tr r="E2" s="1"/>
       </tp>
       <tp>
-        <v>2724.5</v>
+        <v>2650.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -369,48 +414,39 @@
         <stp>現在値</stp>
         <tr r="E3" s="1"/>
       </tp>
+      <tp>
+        <v>2724.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
     </main>
-    <main first="rtdsrv.143b54f222c542e9bca39f46ca3053cf">
+    <main first="rtdsrv.0c380e1b350d4dbc81ebb6f5a588fe00">
       <tp>
         <v>1980.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.143b54f222c542e9bca39f46ca3053cf">
+    <main first="rtdsrv.0c380e1b350d4dbc81ebb6f5a588fe00">
       <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <v>15:30:00</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.143b54f222c542e9bca39f46ca3053cf">
+    <main first="rtdsrv.0c380e1b350d4dbc81ebb6f5a588fe00">
       <tp t="s">
         <v>15:30:00</v>
         <stp/>
@@ -428,42 +464,6 @@
         <stp>72030.T</stp>
         <stp>現在値詳細時刻</stp>
         <tr r="D3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-      <tp>
-        <v>3364</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-      <tp>
-        <v>1977</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp>
-        <v>2675</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -794,7 +794,7 @@
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.875" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.625" style="10" bestFit="1" customWidth="1"/>
@@ -804,7 +804,7 @@
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -824,7 +824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -834,7 +834,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/06/04</v>
+        <v>2025/06/05</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -842,14 +842,14 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3416</v>
+        <v>3335</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3364</v>
+        <v>3416</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -859,7 +859,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/06/04</v>
+        <v>2025/06/05</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -867,14 +867,14 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2724.5</v>
+        <v>2650.5</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2675</v>
+        <v>2724.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -884,7 +884,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/06/04</v>
+        <v>2025/06/05</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -892,14 +892,14 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1980.5</v>
+        <v>1953</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1977</v>
+        <v>1980.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1">
+    <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
@@ -919,7 +919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B7" s="15"/>
     </row>
   </sheetData>

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\kabuto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8272EB1-503D-424E-9B72-9126B645DFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C84392-3153-437F-B143-CAA24E5BB25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15765" yWindow="15" windowWidth="13065" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
+    <workbookView xWindow="47760" yWindow="300" windowWidth="13200" windowHeight="15450" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,9 +321,9 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.0c380e1b350d4dbc81ebb6f5a588fe00">
+    <main first="rtdsrv.fbafd580f99842d3b9796bba7279ec28">
       <tp t="s">
-        <v>2025/06/05</v>
+        <v>2025/06/10</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -332,7 +332,7 @@
         <tr r="C2" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/06/05</v>
+        <v>2025/06/10</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -341,7 +341,7 @@
         <tr r="C4" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/06/05</v>
+        <v>2025/06/10</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -349,10 +349,35 @@
         <stp>現在日付</stp>
         <tr r="C3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.0c380e1b350d4dbc81ebb6f5a588fe00">
       <tp>
-        <v>1953</v>
+        <v>3469</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+      <tp>
+        <v>2640</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>1983</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp>
+        <v>1960</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -360,6 +385,8 @@
         <stp>現在値</stp>
         <tr r="E4" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.fbafd580f99842d3b9796bba7279ec28">
       <tp t="s">
         <v>三菱重工業</v>
         <stp/>
@@ -369,6 +396,8 @@
         <stp>銘柄名称</stp>
         <tr r="B2" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.fbafd580f99842d3b9796bba7279ec28">
       <tp t="s">
         <v>トヨタ自動車</v>
         <stp/>
@@ -378,6 +407,24 @@
         <stp>銘柄名称</stp>
         <tr r="B3" s="1"/>
       </tp>
+      <tp>
+        <v>3398</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp>
+        <v>2656</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
       <tp t="s">
         <v>三菱ＵＦＪフィナンシャルＧ</v>
         <stp/>
@@ -387,57 +434,10 @@
         <stp>銘柄名称</stp>
         <tr r="B4" s="1"/>
       </tp>
-      <tp>
-        <v>3416</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-      <tp>
-        <v>3335</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-      <tp>
-        <v>2650.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>2724.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
     </main>
-    <main first="rtdsrv.0c380e1b350d4dbc81ebb6f5a588fe00">
-      <tp>
-        <v>1980.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.0c380e1b350d4dbc81ebb6f5a588fe00">
+    <main first="rtdsrv.fbafd580f99842d3b9796bba7279ec28">
       <tp t="s">
-        <v>15:30:00</v>
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -446,9 +446,9 @@
         <tr r="D4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.0c380e1b350d4dbc81ebb6f5a588fe00">
+    <main first="rtdsrv.fbafd580f99842d3b9796bba7279ec28">
       <tp t="s">
-        <v>15:30:00</v>
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -457,7 +457,7 @@
         <tr r="D2" s="1"/>
       </tp>
       <tp t="s">
-        <v>15:30:00</v>
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -794,7 +794,7 @@
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11.875" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.625" style="10" bestFit="1" customWidth="1"/>
@@ -804,7 +804,7 @@
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -824,7 +824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -834,22 +834,22 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/06/05</v>
+        <v>2025/06/10</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3335</v>
+        <v>3398</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3416</v>
+        <v>3469</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -859,22 +859,22 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/06/05</v>
+        <v>2025/06/10</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2650.5</v>
+        <v>2656</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2724.5</v>
+        <v>2640</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -884,22 +884,22 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/06/05</v>
+        <v>2025/06/10</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1953</v>
+        <v>1960</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1980.5</v>
+        <v>1983</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" s="6" customFormat="1">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
@@ -919,7 +919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6">
       <c r="B7" s="15"/>
     </row>
   </sheetData>

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C84392-3153-437F-B143-CAA24E5BB25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46C02FD-B75B-4175-A479-8FD8A70EBF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47760" yWindow="300" windowWidth="13200" windowHeight="15450" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
+    <workbookView xWindow="15735" yWindow="15" windowWidth="13065" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,9 +321,27 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.fbafd580f99842d3b9796bba7279ec28">
+    <main first="rtdsrv.b0616e2941974b569bb2e40646c7a8b1">
       <tp t="s">
-        <v>2025/06/10</v>
+        <v>2025/06/12</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/12</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/12</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -332,25 +350,91 @@
         <tr r="C2" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/06/10</v>
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
-      </tp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b0616e2941974b569bb2e40646c7a8b1">
       <tp t="s">
-        <v>2025/06/10</v>
+        <v>トヨタ自動車</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
-      </tp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b0616e2941974b569bb2e40646c7a8b1">
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b0616e2941974b569bb2e40646c7a8b1">
       <tp>
-        <v>3469</v>
+        <v>2616.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp>
+        <v>3440</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b0616e2941974b569bb2e40646c7a8b1">
+      <tp>
+        <v>1956</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp>
+        <v>2656</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b0616e2941974b569bb2e40646c7a8b1">
+      <tp>
+        <v>1957</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b0616e2941974b569bb2e40646c7a8b1">
+      <tp>
+        <v>3276</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -358,84 +442,28 @@
         <stp>前日終値</stp>
         <tr r="F2" s="1"/>
       </tp>
-      <tp>
-        <v>2640</v>
+    </main>
+    <main first="rtdsrv.b0616e2941974b569bb2e40646c7a8b1">
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>1983</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp>
-        <v>1960</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.fbafd580f99842d3b9796bba7279ec28">
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.fbafd580f99842d3b9796bba7279ec28">
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp>
-        <v>3398</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-      <tp>
-        <v>2656</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.fbafd580f99842d3b9796bba7279ec28">
+    <main first="rtdsrv.b0616e2941974b569bb2e40646c7a8b1">
       <tp t="s">
         <v>15:24:59</v>
         <stp/>
@@ -444,26 +472,6 @@
         <stp>83060.T</stp>
         <stp>現在値詳細時刻</stp>
         <tr r="D4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.fbafd580f99842d3b9796bba7279ec28">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -794,7 +802,7 @@
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.875" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.625" style="10" bestFit="1" customWidth="1"/>
@@ -804,7 +812,7 @@
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -824,7 +832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -834,7 +842,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/06/10</v>
+        <v>2025/06/12</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -842,14 +850,14 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3398</v>
+        <v>3440</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3469</v>
+        <v>3276</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -859,7 +867,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/06/10</v>
+        <v>2025/06/12</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -867,14 +875,14 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2656</v>
+        <v>2616.5</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2640</v>
+        <v>2656</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -884,7 +892,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/06/10</v>
+        <v>2025/06/12</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -892,14 +900,14 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1983</v>
+        <v>1956</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1">
+    <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
@@ -919,11 +927,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B7" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46C02FD-B75B-4175-A479-8FD8A70EBF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9644F4B0-B229-4448-8F39-FB261186B21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15735" yWindow="15" windowWidth="13065" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -321,9 +321,27 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.b0616e2941974b569bb2e40646c7a8b1">
+    <main first="rtdsrv.cfabb3932fc34aedbe6cbfeff46c70a2">
       <tp t="s">
-        <v>2025/06/12</v>
+        <v>2025/06/13</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/13</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/13</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -331,24 +349,90 @@
         <stp>現在日付</stp>
         <tr r="C3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.cfabb3932fc34aedbe6cbfeff46c70a2">
+      <tp>
+        <v>3436</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.cfabb3932fc34aedbe6cbfeff46c70a2">
+      <tp>
+        <v>2616.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.cfabb3932fc34aedbe6cbfeff46c70a2">
+      <tp>
+        <v>1963.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
       <tp t="s">
-        <v>2025/06/12</v>
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
-      </tp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.cfabb3932fc34aedbe6cbfeff46c70a2">
       <tp t="s">
-        <v>2025/06/12</v>
+        <v>三菱重工業</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>70110.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C2" s="1"/>
-      </tp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.cfabb3932fc34aedbe6cbfeff46c70a2">
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.cfabb3932fc34aedbe6cbfeff46c70a2">
       <tp t="s">
         <v>三菱ＵＦＪフィナンシャルＧ</v>
         <stp/>
@@ -359,119 +443,35 @@
         <tr r="B4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.b0616e2941974b569bb2e40646c7a8b1">
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
+    <main first="rtdsrv.cfabb3932fc34aedbe6cbfeff46c70a2">
+      <tp>
+        <v>1934.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.b0616e2941974b569bb2e40646c7a8b1">
-      <tp t="s">
-        <v>三菱重工業</v>
+    <main first="rtdsrv.cfabb3932fc34aedbe6cbfeff46c70a2">
+      <tp>
+        <v>3501</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b0616e2941974b569bb2e40646c7a8b1">
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
       <tp>
-        <v>2616.5</v>
+        <v>2555</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
         <stp>現在値</stp>
         <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>3440</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b0616e2941974b569bb2e40646c7a8b1">
-      <tp>
-        <v>1956</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp>
-        <v>2656</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b0616e2941974b569bb2e40646c7a8b1">
-      <tp>
-        <v>1957</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b0616e2941974b569bb2e40646c7a8b1">
-      <tp>
-        <v>3276</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b0616e2941974b569bb2e40646c7a8b1">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b0616e2941974b569bb2e40646c7a8b1">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
       </tp>
     </main>
   </volType>
@@ -842,7 +842,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/06/12</v>
+        <v>2025/06/13</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -850,11 +850,11 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3440</v>
+        <v>3501</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3276</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -867,7 +867,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/06/12</v>
+        <v>2025/06/13</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -875,11 +875,11 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2616.5</v>
+        <v>2555</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2656</v>
+        <v>2616.5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -892,7 +892,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/06/12</v>
+        <v>2025/06/13</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -900,11 +900,11 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1957</v>
+        <v>1934.5</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1956</v>
+        <v>1963.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9644F4B0-B229-4448-8F39-FB261186B21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72DEEBB-9B1B-4661-A05E-94CC8AF07DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15735" yWindow="15" windowWidth="13065" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -321,9 +321,9 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.cfabb3932fc34aedbe6cbfeff46c70a2">
+    <main first="rtdsrv.c76512e3e96d4b1fb701731c0426d856">
       <tp t="s">
-        <v>2025/06/13</v>
+        <v>2025/06/17</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -332,7 +332,7 @@
         <tr r="C2" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/06/13</v>
+        <v>2025/06/17</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -341,7 +341,7 @@
         <tr r="C4" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/06/13</v>
+        <v>2025/06/17</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -350,9 +350,40 @@
         <tr r="C3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.cfabb3932fc34aedbe6cbfeff46c70a2">
+    <main first="rtdsrv.c76512e3e96d4b1fb701731c0426d856">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c76512e3e96d4b1fb701731c0426d856">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c76512e3e96d4b1fb701731c0426d856">
       <tp>
-        <v>3436</v>
+        <v>3582</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -360,10 +391,8 @@
         <stp>前日終値</stp>
         <tr r="F2" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.cfabb3932fc34aedbe6cbfeff46c70a2">
       <tp>
-        <v>2616.5</v>
+        <v>2554.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -371,10 +400,17 @@
         <stp>前日終値</stp>
         <tr r="F3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.cfabb3932fc34aedbe6cbfeff46c70a2">
       <tp>
-        <v>1963.5</v>
+        <v>1949</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+      <tp>
+        <v>1953</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -382,17 +418,24 @@
         <stp>前日終値</stp>
         <tr r="F4" s="1"/>
       </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.cfabb3932fc34aedbe6cbfeff46c70a2">
+      <tp>
+        <v>3577</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp>
+        <v>2542.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
       <tp t="s">
         <v>三菱重工業</v>
         <stp/>
@@ -403,7 +446,7 @@
         <tr r="B2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.cfabb3932fc34aedbe6cbfeff46c70a2">
+    <main first="rtdsrv.c76512e3e96d4b1fb701731c0426d856">
       <tp t="s">
         <v>トヨタ自動車</v>
         <stp/>
@@ -414,26 +457,6 @@
         <tr r="B3" s="1"/>
       </tp>
       <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.cfabb3932fc34aedbe6cbfeff46c70a2">
-      <tp t="s">
         <v>三菱ＵＦＪフィナンシャルＧ</v>
         <stp/>
         <stp>Market</stp>
@@ -441,37 +464,6 @@
         <stp>83060.T</stp>
         <stp>銘柄名称</stp>
         <tr r="B4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.cfabb3932fc34aedbe6cbfeff46c70a2">
-      <tp>
-        <v>1934.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.cfabb3932fc34aedbe6cbfeff46c70a2">
-      <tp>
-        <v>3501</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-      <tp>
-        <v>2555</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -842,7 +834,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/06/13</v>
+        <v>2025/06/17</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -850,11 +842,11 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3501</v>
+        <v>3577</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3436</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -867,7 +859,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/06/13</v>
+        <v>2025/06/17</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -875,11 +867,11 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2555</v>
+        <v>2542.5</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2616.5</v>
+        <v>2554.5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -892,7 +884,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/06/13</v>
+        <v>2025/06/17</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -900,11 +892,11 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1934.5</v>
+        <v>1949</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1963.5</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72DEEBB-9B1B-4661-A05E-94CC8AF07DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A931E09-1FD7-4417-905D-1FE7968823A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15735" yWindow="15" windowWidth="13065" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cover" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -321,7 +321,7 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.c76512e3e96d4b1fb701731c0426d856">
+    <main first="rtdsrv.33cd7a0d3ecf45f5901c6009bc231572">
       <tp t="s">
         <v>2025/06/17</v>
         <stp/>
@@ -336,134 +336,132 @@
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/17</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
         <stp>83060.T</stp>
         <stp>現在日付</stp>
         <tr r="C4" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.33cd7a0d3ecf45f5901c6009bc231572">
       <tp t="s">
-        <v>2025/06/17</v>
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>トヨタ自動車</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp>
+        <v>3569</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp>
+        <v>2538</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp>
+        <v>3582</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+      <tp>
+        <v>1951.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+      <tp>
+        <v>1953</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp>
+        <v>2554.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.c76512e3e96d4b1fb701731c0426d856">
+    <main first="rtdsrv.33cd7a0d3ecf45f5901c6009bc231572">
       <tp t="s">
-        <v>15:24:59</v>
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.33cd7a0d3ecf45f5901c6009bc231572">
+      <tp t="s">
+        <v>15:30:00</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
         <stp>現在値詳細時刻</stp>
         <tr r="D4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c76512e3e96d4b1fb701731c0426d856">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c76512e3e96d4b1fb701731c0426d856">
-      <tp>
-        <v>3582</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-      <tp>
-        <v>2554.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>1949</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-      <tp>
-        <v>1953</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp>
-        <v>3577</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-      <tp>
-        <v>2542.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c76512e3e96d4b1fb701731c0426d856">
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
       </tp>
     </main>
   </volType>
@@ -791,7 +789,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.4"/>
@@ -838,11 +836,11 @@
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3577</v>
+        <v>3569</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
@@ -863,11 +861,11 @@
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2542.5</v>
+        <v>2538</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
@@ -888,11 +886,11 @@
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1949</v>
+        <v>1951.5</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A931E09-1FD7-4417-905D-1FE7968823A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA10D09-6751-4894-927C-F70579D087B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15735" yWindow="15" windowWidth="13065" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -321,7 +321,25 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.33cd7a0d3ecf45f5901c6009bc231572">
+    <main first="rtdsrv.0ab53193ec2c4e01b0198e7480cf56fc">
+      <tp t="s">
+        <v>2025/06/17</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/17</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
       <tp t="s">
         <v>2025/06/17</v>
         <stp/>
@@ -331,26 +349,104 @@
         <stp>現在日付</stp>
         <tr r="C2" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.0ab53193ec2c4e01b0198e7480cf56fc">
       <tp t="s">
-        <v>2025/06/17</v>
+        <v>15:30:00</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/06/17</v>
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0ab53193ec2c4e01b0198e7480cf56fc">
+      <tp t="s">
+        <v>15:30:00</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.33cd7a0d3ecf45f5901c6009bc231572">
+    <main first="rtdsrv.0ab53193ec2c4e01b0198e7480cf56fc">
+      <tp>
+        <v>1953</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0ab53193ec2c4e01b0198e7480cf56fc">
+      <tp>
+        <v>2554.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>2538</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp>
+        <v>3569</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp>
+        <v>3582</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
       <tp t="s">
         <v>三菱重工業</v>
         <stp/>
@@ -360,51 +456,6 @@
         <stp>銘柄名称</stp>
         <tr r="B2" s="1"/>
       </tp>
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp>
-        <v>3569</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-      <tp>
-        <v>2538</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>3582</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
       <tp>
         <v>1951.5</v>
         <stp/>
@@ -413,55 +464,6 @@
         <stp>83060.T</stp>
         <stp>現在値</stp>
         <tr r="E4" s="1"/>
-      </tp>
-      <tp>
-        <v>1953</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp>
-        <v>2554.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.33cd7a0d3ecf45f5901c6009bc231572">
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.33cd7a0d3ecf45f5901c6009bc231572">
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
       </tp>
     </main>
   </volType>

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\kabuto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA10D09-6751-4894-927C-F70579D087B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4160C3A6-30B1-4ED3-AA4D-BA8492F0B6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15735" yWindow="15" windowWidth="13065" windowHeight="15525" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
+    <workbookView xWindow="47760" yWindow="300" windowWidth="13200" windowHeight="15450" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,9 +321,20 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.0ab53193ec2c4e01b0198e7480cf56fc">
+    <main first="rtdsrv.980d364a01d743a983e7378379e56f9b">
       <tp t="s">
-        <v>2025/06/17</v>
+        <v>2025/06/18</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.980d364a01d743a983e7378379e56f9b">
+      <tp t="s">
+        <v>2025/06/18</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -331,17 +342,10 @@
         <stp>現在日付</stp>
         <tr r="C3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.980d364a01d743a983e7378379e56f9b">
       <tp t="s">
-        <v>2025/06/17</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/17</v>
+        <v>2025/06/18</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -349,10 +353,8 @@
         <stp>現在日付</stp>
         <tr r="C2" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.0ab53193ec2c4e01b0198e7480cf56fc">
       <tp t="s">
-        <v>15:30:00</v>
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -361,7 +363,7 @@
         <tr r="D3" s="1"/>
       </tp>
       <tp t="s">
-        <v>15:30:00</v>
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -370,9 +372,9 @@
         <tr r="D2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.0ab53193ec2c4e01b0198e7480cf56fc">
+    <main first="rtdsrv.980d364a01d743a983e7378379e56f9b">
       <tp t="s">
-        <v>15:30:00</v>
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -381,9 +383,20 @@
         <tr r="D4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.0ab53193ec2c4e01b0198e7480cf56fc">
+    <main first="rtdsrv.980d364a01d743a983e7378379e56f9b">
       <tp>
-        <v>1953</v>
+        <v>2538</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.980d364a01d743a983e7378379e56f9b">
+      <tp>
+        <v>1951.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -392,18 +405,20 @@
         <tr r="F4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.0ab53193ec2c4e01b0198e7480cf56fc">
+    <main first="rtdsrv.980d364a01d743a983e7378379e56f9b">
       <tp>
-        <v>2554.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
+        <v>3569</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
         <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
+        <tr r="F2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.980d364a01d743a983e7378379e56f9b">
       <tp>
-        <v>2538</v>
+        <v>2574.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -412,7 +427,7 @@
         <tr r="E3" s="1"/>
       </tp>
       <tp>
-        <v>3569</v>
+        <v>3501</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -420,14 +435,25 @@
         <stp>現在値</stp>
         <tr r="E2" s="1"/>
       </tp>
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.980d364a01d743a983e7378379e56f9b">
       <tp>
-        <v>3582</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
+        <v>1954.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
       </tp>
       <tp t="s">
         <v>三菱ＵＦＪフィナンシャルＧ</v>
@@ -438,15 +464,8 @@
         <stp>銘柄名称</stp>
         <tr r="B4" s="1"/>
       </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
+    </main>
+    <main first="rtdsrv.980d364a01d743a983e7378379e56f9b">
       <tp t="s">
         <v>三菱重工業</v>
         <stp/>
@@ -455,15 +474,6 @@
         <stp>70110.T</stp>
         <stp>銘柄名称</stp>
         <tr r="B2" s="1"/>
-      </tp>
-      <tp>
-        <v>1951.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
       </tp>
     </main>
   </volType>
@@ -791,10 +801,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11.875" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.625" style="10" bestFit="1" customWidth="1"/>
@@ -804,7 +814,7 @@
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -824,7 +834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="23.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -834,22 +844,22 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/06/17</v>
+        <v>2025/06/18</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3569</v>
+        <v>3501</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3582</v>
+        <v>3569</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="23.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -859,22 +869,22 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/06/17</v>
+        <v>2025/06/18</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2538</v>
+        <v>2574.5</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2554.5</v>
+        <v>2538</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="23.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -884,22 +894,22 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/06/17</v>
+        <v>2025/06/18</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1951.5</v>
+        <v>1954.5</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1953</v>
+        <v>1951.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" s="6" customFormat="1" ht="23.25">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
@@ -919,7 +929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="23.25">
       <c r="B7" s="15"/>
     </row>
   </sheetData>

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4160C3A6-30B1-4ED3-AA4D-BA8492F0B6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA24E2EF-1D75-4022-81F7-CF0A8775A167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47760" yWindow="300" windowWidth="13200" windowHeight="15450" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -321,9 +321,18 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.980d364a01d743a983e7378379e56f9b">
+    <main first="rtdsrv.34b41b4158bb439985eba5a703fdc789">
       <tp t="s">
-        <v>2025/06/18</v>
+        <v>2025/06/20</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/20</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -331,21 +340,8 @@
         <stp>現在日付</stp>
         <tr r="C4" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.980d364a01d743a983e7378379e56f9b">
       <tp t="s">
-        <v>2025/06/18</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.980d364a01d743a983e7378379e56f9b">
-      <tp t="s">
-        <v>2025/06/18</v>
+        <v>2025/06/20</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -353,6 +349,17 @@
         <stp>現在日付</stp>
         <tr r="C2" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.34b41b4158bb439985eba5a703fdc789">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
       <tp t="s">
         <v>15:24:59</v>
         <stp/>
@@ -372,20 +379,76 @@
         <tr r="D2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.980d364a01d743a983e7378379e56f9b">
+    <main first="rtdsrv.34b41b4158bb439985eba5a703fdc789">
       <tp t="s">
-        <v>15:24:59</v>
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.980d364a01d743a983e7378379e56f9b">
+    <main first="rtdsrv.34b41b4158bb439985eba5a703fdc789">
       <tp>
-        <v>2538</v>
+        <v>1962</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp>
+        <v>2515.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp>
+        <v>3460</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.34b41b4158bb439985eba5a703fdc789">
+      <tp>
+        <v>1950.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp>
+        <v>2525.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -393,87 +456,14 @@
         <stp>前日終値</stp>
         <tr r="F3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.980d364a01d743a983e7378379e56f9b">
       <tp>
-        <v>1951.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.980d364a01d743a983e7378379e56f9b">
-      <tp>
-        <v>3569</v>
+        <v>3541</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>70110.T</stp>
         <stp>前日終値</stp>
         <tr r="F2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.980d364a01d743a983e7378379e56f9b">
-      <tp>
-        <v>2574.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>3501</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.980d364a01d743a983e7378379e56f9b">
-      <tp>
-        <v>1954.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.980d364a01d743a983e7378379e56f9b">
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
       </tp>
     </main>
   </volType>
@@ -834,7 +824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="23.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -844,7 +834,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/06/18</v>
+        <v>2025/06/20</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -852,14 +842,14 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3501</v>
+        <v>3460</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3569</v>
+        <v>3541</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="23.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -869,7 +859,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/06/18</v>
+        <v>2025/06/20</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -877,14 +867,14 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2574.5</v>
+        <v>2515.5</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2538</v>
+        <v>2525.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="23.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -894,7 +884,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/06/18</v>
+        <v>2025/06/20</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -902,14 +892,14 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1954.5</v>
+        <v>1962</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1951.5</v>
+        <v>1950.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" ht="23.25">
+    <row r="5" spans="1:6" s="6" customFormat="1">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
@@ -929,7 +919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="23.25">
+    <row r="7" spans="1:6">
       <c r="B7" s="15"/>
     </row>
   </sheetData>

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA24E2EF-1D75-4022-81F7-CF0A8775A167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C93DD6B-7C7F-46F3-97D3-BD836CC20565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47760" yWindow="300" windowWidth="13200" windowHeight="15450" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -321,9 +321,27 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.34b41b4158bb439985eba5a703fdc789">
+    <main first="rtdsrv.9b359a90141243d187f1c54b4cad4356">
       <tp t="s">
-        <v>2025/06/20</v>
+        <v>2025/06/23</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/23</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/23</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -332,25 +350,90 @@
         <tr r="C3" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/06/20</v>
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b359a90141243d187f1c54b4cad4356">
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/06/20</v>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp>
+        <v>1940.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+      <tp>
+        <v>3450</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>70110.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C2" s="1"/>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+      <tp>
+        <v>3451</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp>
+        <v>2489.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp>
+        <v>2502.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>1957.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.34b41b4158bb439985eba5a703fdc789">
+    <main first="rtdsrv.9b359a90141243d187f1c54b4cad4356">
       <tp t="s">
         <v>15:24:59</v>
         <stp/>
@@ -360,6 +443,17 @@
         <stp>現在値詳細時刻</stp>
         <tr r="D4" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.9b359a90141243d187f1c54b4cad4356">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
       <tp t="s">
         <v>15:24:59</v>
         <stp/>
@@ -368,102 +462,6 @@
         <stp>72030.T</stp>
         <stp>現在値詳細時刻</stp>
         <tr r="D3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.34b41b4158bb439985eba5a703fdc789">
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.34b41b4158bb439985eba5a703fdc789">
-      <tp>
-        <v>1962</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-      <tp>
-        <v>2515.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>3460</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.34b41b4158bb439985eba5a703fdc789">
-      <tp>
-        <v>1950.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp>
-        <v>2525.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>3541</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
       </tp>
     </main>
   </volType>
@@ -834,7 +832,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/06/20</v>
+        <v>2025/06/23</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -842,11 +840,11 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3460</v>
+        <v>3451</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3541</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -859,7 +857,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/06/20</v>
+        <v>2025/06/23</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -867,11 +865,11 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2515.5</v>
+        <v>2489.5</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2525.5</v>
+        <v>2502.5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -884,7 +882,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/06/20</v>
+        <v>2025/06/23</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -892,11 +890,11 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1962</v>
+        <v>1940.5</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1950.5</v>
+        <v>1957.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1">

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C93DD6B-7C7F-46F3-97D3-BD836CC20565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F91340-A844-4C9B-AC84-896FAC862836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47760" yWindow="300" windowWidth="13200" windowHeight="15450" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -321,9 +321,9 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.9b359a90141243d187f1c54b4cad4356">
+    <main first="rtdsrv.a8a7110bcffa4c4a804f08edd3699c68">
       <tp t="s">
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -332,7 +332,7 @@
         <tr r="C2" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -341,7 +341,7 @@
         <tr r="C4" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -349,6 +349,50 @@
         <stp>現在日付</stp>
         <tr r="C3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.a8a7110bcffa4c4a804f08edd3699c68">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a8a7110bcffa4c4a804f08edd3699c68">
+      <tp>
+        <v>3444</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+      <tp>
+        <v>2493.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a8a7110bcffa4c4a804f08edd3699c68">
+      <tp>
+        <v>1939.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a8a7110bcffa4c4a804f08edd3699c68">
       <tp t="s">
         <v>三菱重工業</v>
         <stp/>
@@ -358,8 +402,6 @@
         <stp>銘柄名称</stp>
         <tr r="B2" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.9b359a90141243d187f1c54b4cad4356">
       <tp t="s">
         <v>トヨタ自動車</v>
         <stp/>
@@ -370,6 +412,24 @@
         <tr r="B3" s="1"/>
       </tp>
       <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+      <tp t="s">
         <v>三菱ＵＦＪフィナンシャルＧ</v>
         <stp/>
         <stp>Market</stp>
@@ -378,8 +438,10 @@
         <stp>銘柄名称</stp>
         <tr r="B4" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.a8a7110bcffa4c4a804f08edd3699c68">
       <tp>
-        <v>1940.5</v>
+        <v>1965.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -388,16 +450,7 @@
         <tr r="E4" s="1"/>
       </tp>
       <tp>
-        <v>3450</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-      <tp>
-        <v>3451</v>
+        <v>3440</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -406,62 +459,13 @@
         <tr r="E2" s="1"/>
       </tp>
       <tp>
-        <v>2489.5</v>
+        <v>2475.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
         <stp>現在値</stp>
         <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>2502.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>1957.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b359a90141243d187f1c54b4cad4356">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b359a90141243d187f1c54b4cad4356">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -832,7 +836,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -840,11 +844,11 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3451</v>
+        <v>3440</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3450</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -857,7 +861,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -865,11 +869,11 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2489.5</v>
+        <v>2475.5</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2502.5</v>
+        <v>2493.5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -882,7 +886,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/06/23</v>
+        <v>2025/06/24</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -890,11 +894,11 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1940.5</v>
+        <v>1965.5</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1957.5</v>
+        <v>1939.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1">

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F91340-A844-4C9B-AC84-896FAC862836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5194A449-1187-467E-BAA3-8603DB524D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47760" yWindow="300" windowWidth="13200" windowHeight="15450" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -321,9 +321,9 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.a8a7110bcffa4c4a804f08edd3699c68">
+    <main first="rtdsrv.a77006c0b774494bacd5ad0817ff9603">
       <tp t="s">
-        <v>2025/06/24</v>
+        <v>2025/06/25</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -332,7 +332,16 @@
         <tr r="C2" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/06/24</v>
+        <v>2025/06/25</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/25</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -340,19 +349,97 @@
         <stp>現在日付</stp>
         <tr r="C4" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.a77006c0b774494bacd5ad0817ff9603">
+      <tp>
+        <v>3435</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp>
+        <v>2460.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a77006c0b774494bacd5ad0817ff9603">
+      <tp>
+        <v>1965</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a77006c0b774494bacd5ad0817ff9603">
       <tp t="s">
-        <v>2025/06/24</v>
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>トヨタ自動車</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.a8a7110bcffa4c4a804f08edd3699c68">
+    <main first="rtdsrv.a77006c0b774494bacd5ad0817ff9603">
+      <tp>
+        <v>3447</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
       <tp t="s">
-        <v>15:24:59</v>
+        <v>15:30:00</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -360,112 +447,23 @@
         <stp>現在値詳細時刻</stp>
         <tr r="D4" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.a8a7110bcffa4c4a804f08edd3699c68">
       <tp>
-        <v>3444</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
+        <v>1972</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
         <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
+        <tr r="F4" s="1"/>
       </tp>
       <tp>
-        <v>2493.5</v>
+        <v>2490</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
         <stp>前日終値</stp>
         <tr r="F3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a8a7110bcffa4c4a804f08edd3699c68">
-      <tp>
-        <v>1939.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a8a7110bcffa4c4a804f08edd3699c68">
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a8a7110bcffa4c4a804f08edd3699c68">
-      <tp>
-        <v>1965.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-      <tp>
-        <v>3440</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-      <tp>
-        <v>2475.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -836,19 +834,19 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/06/24</v>
+        <v>2025/06/25</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3440</v>
+        <v>3435</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3444</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -861,19 +859,19 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/06/24</v>
+        <v>2025/06/25</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2475.5</v>
+        <v>2460.5</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2493.5</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -886,19 +884,19 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/06/24</v>
+        <v>2025/06/25</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1965.5</v>
+        <v>1965</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1939.5</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1">

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5194A449-1187-467E-BAA3-8603DB524D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CCA10A-5C96-4A17-9C6B-75EEFEB6B8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47760" yWindow="300" windowWidth="13200" windowHeight="15450" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -321,9 +321,27 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.a77006c0b774494bacd5ad0817ff9603">
+    <main first="rtdsrv.492fb6f35be54a29b11f692aaed17694">
       <tp t="s">
-        <v>2025/06/25</v>
+        <v>2025/06/26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/26</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/26</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -331,28 +349,102 @@
         <stp>現在日付</stp>
         <tr r="C2" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.492fb6f35be54a29b11f692aaed17694">
+      <tp>
+        <v>1965</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp>
+        <v>2460.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
       <tp t="s">
-        <v>2025/06/25</v>
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/06/25</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a77006c0b774494bacd5ad0817ff9603">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
       <tp>
         <v>3435</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.492fb6f35be54a29b11f692aaed17694">
+      <tp>
+        <v>2456.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp>
+        <v>3533</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -360,110 +452,16 @@
         <stp>現在値</stp>
         <tr r="E2" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.492fb6f35be54a29b11f692aaed17694">
       <tp>
-        <v>2460.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a77006c0b774494bacd5ad0817ff9603">
-      <tp>
-        <v>1965</v>
+        <v>1975</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
         <stp>現在値</stp>
         <tr r="E4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a77006c0b774494bacd5ad0817ff9603">
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a77006c0b774494bacd5ad0817ff9603">
-      <tp>
-        <v>3447</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-      <tp>
-        <v>1972</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp>
-        <v>2490</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -834,19 +832,19 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/06/25</v>
+        <v>2025/06/26</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3435</v>
+        <v>3533</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3447</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -859,19 +857,19 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/06/25</v>
+        <v>2025/06/26</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2460.5</v>
+        <v>2456.5</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2490</v>
+        <v>2460.5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -884,19 +882,19 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/06/25</v>
+        <v>2025/06/26</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1965</v>
+        <v>1975</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1972</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1">

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CCA10A-5C96-4A17-9C6B-75EEFEB6B8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70433BD8-10E5-4A00-B6EF-08DB8910E199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47760" yWindow="300" windowWidth="13200" windowHeight="15450" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
+    <workbookView xWindow="-13065" yWindow="135" windowWidth="12975" windowHeight="15885" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -321,9 +321,9 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.492fb6f35be54a29b11f692aaed17694">
+    <main first="rtdsrv.cee3bc0395d544149b09c3c97e85df75">
       <tp t="s">
-        <v>2025/06/26</v>
+        <v>2025/06/27</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -332,7 +332,7 @@
         <tr r="C3" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/06/26</v>
+        <v>2025/06/27</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -341,7 +341,7 @@
         <tr r="C4" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/06/26</v>
+        <v>2025/06/27</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -350,9 +350,38 @@
         <tr r="C2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.492fb6f35be54a29b11f692aaed17694">
+    <main first="rtdsrv.cee3bc0395d544149b09c3c97e85df75">
       <tp>
-        <v>1965</v>
+        <v>1984</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.cee3bc0395d544149b09c3c97e85df75">
+      <tp>
+        <v>2527</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp>
+        <v>3644</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp>
+        <v>1976.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -361,7 +390,7 @@
         <tr r="F4" s="1"/>
       </tp>
       <tp>
-        <v>2460.5</v>
+        <v>2456.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -369,8 +398,37 @@
         <stp>前日終値</stp>
         <tr r="F3" s="1"/>
       </tp>
+      <tp>
+        <v>3548</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.cee3bc0395d544149b09c3c97e85df75">
       <tp t="s">
-        <v>15:24:59</v>
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:30:00</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -379,7 +437,7 @@
         <tr r="D3" s="1"/>
       </tp>
       <tp t="s">
-        <v>15:24:59</v>
+        <v>15:30:00</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -387,24 +445,6 @@
         <stp>現在値詳細時刻</stp>
         <tr r="D2" s="1"/>
       </tp>
-      <tp>
-        <v>3435</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
       <tp t="s">
         <v>トヨタ自動車</v>
         <stp/>
@@ -414,6 +454,8 @@
         <stp>銘柄名称</stp>
         <tr r="B3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.cee3bc0395d544149b09c3c97e85df75">
       <tp t="s">
         <v>三菱重工業</v>
         <stp/>
@@ -422,46 +464,6 @@
         <stp>70110.T</stp>
         <stp>銘柄名称</stp>
         <tr r="B2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.492fb6f35be54a29b11f692aaed17694">
-      <tp>
-        <v>2456.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>3533</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.492fb6f35be54a29b11f692aaed17694">
-      <tp>
-        <v>1975</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
       </tp>
     </main>
   </volType>
@@ -832,19 +834,19 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/06/26</v>
+        <v>2025/06/27</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3533</v>
+        <v>3644</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3435</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -857,19 +859,19 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/06/26</v>
+        <v>2025/06/27</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2456.5</v>
+        <v>2527</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2460.5</v>
+        <v>2456.5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -882,19 +884,19 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/06/26</v>
+        <v>2025/06/27</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:30:00</v>
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1975</v>
+        <v>1984</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1965</v>
+        <v>1976.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1">

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70433BD8-10E5-4A00-B6EF-08DB8910E199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D04EA9F-F52B-4BC8-AD47-DC6ABF20AA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13065" yWindow="135" windowWidth="12975" windowHeight="15885" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
+    <workbookView xWindow="15870" yWindow="255" windowWidth="12600" windowHeight="11835" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>7011</t>
     <phoneticPr fontId="1"/>
@@ -129,6 +129,10 @@
   </si>
   <si>
     <t>前日終値</t>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -321,9 +325,18 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.cee3bc0395d544149b09c3c97e85df75">
+    <main first="rtdsrv.646156542c9c4a94b6662ea8696b0599">
       <tp t="s">
-        <v>2025/06/27</v>
+        <v>2025/06/30</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/06/30</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -332,7 +345,7 @@
         <tr r="C3" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/06/27</v>
+        <v>2025/06/30</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -340,19 +353,19 @@
         <stp>現在日付</stp>
         <tr r="C4" s="1"/>
       </tp>
-      <tp t="s">
-        <v>2025/06/27</v>
+    </main>
+    <main first="rtdsrv.646156542c9c4a94b6662ea8696b0599">
+      <tp>
+        <v>3644</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>70110.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.cee3bc0395d544149b09c3c97e85df75">
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
       <tp>
-        <v>1984</v>
+        <v>1983</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -360,10 +373,35 @@
         <stp>現在値</stp>
         <tr r="E4" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.cee3bc0395d544149b09c3c97e85df75">
+      <tp>
+        <v>1984</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
       <tp>
         <v>2527</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>3610</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp>
+        <v>2493</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -371,44 +409,35 @@
         <stp>現在値</stp>
         <tr r="E3" s="1"/>
       </tp>
-      <tp>
-        <v>3644</v>
+      <tp t="s">
+        <v>三菱重工業</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-      <tp>
-        <v>1976.5</v>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp>
-        <v>2456.5</v>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.646156542c9c4a94b6662ea8696b0599">
+      <tp t="s">
+        <v>トヨタ自動車</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>3548</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.cee3bc0395d544149b09c3c97e85df75">
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
       <tp t="s">
         <v>15:30:00</v>
         <stp/>
@@ -418,14 +447,16 @@
         <stp>現在値詳細時刻</stp>
         <tr r="D4" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.646156542c9c4a94b6662ea8696b0599">
       <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
+        <v>15:30:00</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
       </tp>
       <tp t="s">
         <v>15:30:00</v>
@@ -435,35 +466,6 @@
         <stp>72030.T</stp>
         <stp>現在値詳細時刻</stp>
         <tr r="D3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.cee3bc0395d544149b09c3c97e85df75">
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
       </tp>
     </main>
   </volType>
@@ -787,7 +789,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EB8444-48DA-48DA-A81F-4EF7D3D3E7A0}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -834,7 +836,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/06/27</v>
+        <v>2025/06/30</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -842,11 +844,11 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3644</v>
+        <v>3610</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3548</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -859,7 +861,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/06/27</v>
+        <v>2025/06/30</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -867,11 +869,11 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2527</v>
+        <v>2493</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2456.5</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -884,7 +886,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/06/27</v>
+        <v>2025/06/30</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -892,11 +894,11 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1976.5</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1">
@@ -921,6 +923,11 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="15"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D04EA9F-F52B-4BC8-AD47-DC6ABF20AA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B562DFE-DC6B-4D96-83D4-1534353A2D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15870" yWindow="255" windowWidth="12600" windowHeight="11835" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>7011</t>
     <phoneticPr fontId="1"/>
@@ -129,10 +129,6 @@
   </si>
   <si>
     <t>前日終値</t>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -325,9 +321,27 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.646156542c9c4a94b6662ea8696b0599">
+    <main first="rtdsrv.616c42bbcdf84a8489c04bbed37d8b1d">
       <tp t="s">
-        <v>2025/06/30</v>
+        <v>2025/07/01</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/01</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/01</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -335,28 +349,61 @@
         <stp>現在日付</stp>
         <tr r="C2" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.616c42bbcdf84a8489c04bbed37d8b1d">
       <tp t="s">
-        <v>2025/06/30</v>
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/06/30</v>
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.616c42bbcdf84a8489c04bbed37d8b1d">
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.646156542c9c4a94b6662ea8696b0599">
+    <main first="rtdsrv.616c42bbcdf84a8489c04bbed37d8b1d">
       <tp>
-        <v>3644</v>
+        <v>1983</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.616c42bbcdf84a8489c04bbed37d8b1d">
+      <tp>
+        <v>2493</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>3610</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -365,7 +412,34 @@
         <tr r="F2" s="1"/>
       </tp>
       <tp>
-        <v>1983</v>
+        <v>2451</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp>
+        <v>3616</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp>
+        <v>1972</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -373,41 +447,14 @@
         <stp>現在値</stp>
         <tr r="E4" s="1"/>
       </tp>
-      <tp>
-        <v>1984</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp>
-        <v>2527</v>
+      <tp t="s">
+        <v>トヨタ自動車</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>3610</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-      <tp>
-        <v>2493</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
       </tp>
       <tp t="s">
         <v>三菱重工業</v>
@@ -417,55 +464,6 @@
         <stp>70110.T</stp>
         <stp>銘柄名称</stp>
         <tr r="B2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.646156542c9c4a94b6662ea8696b0599">
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.646156542c9c4a94b6662ea8696b0599">
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:30:00</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -789,11 +787,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EB8444-48DA-48DA-A81F-4EF7D3D3E7A0}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -836,19 +834,19 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/06/30</v>
+        <v>2025/07/01</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3610</v>
+        <v>3616</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3644</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -861,19 +859,19 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/06/30</v>
+        <v>2025/07/01</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2493</v>
+        <v>2451</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2527</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -886,19 +884,19 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/06/30</v>
+        <v>2025/07/01</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
-        <v>15:30:00</v>
+        <v>15:24:59</v>
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1983</v>
+        <v>1972</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1">
@@ -923,11 +921,6 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="15"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="9" t="s">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B562DFE-DC6B-4D96-83D4-1534353A2D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9288D8A-F12E-48A5-B01D-26AD2958DF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15870" yWindow="255" windowWidth="12600" windowHeight="11835" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -321,9 +321,9 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.616c42bbcdf84a8489c04bbed37d8b1d">
+    <main first="rtdsrv.78500be255f940fc894ac13b6c876746">
       <tp t="s">
-        <v>2025/07/01</v>
+        <v>2025/07/02</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -332,7 +332,7 @@
         <tr r="C3" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/07/01</v>
+        <v>2025/07/02</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -341,7 +341,7 @@
         <tr r="C4" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/07/01</v>
+        <v>2025/07/02</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -350,7 +350,25 @@
         <tr r="C2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.616c42bbcdf84a8489c04bbed37d8b1d">
+    <main first="rtdsrv.78500be255f940fc894ac13b6c876746">
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
       <tp t="s">
         <v>15:24:59</v>
         <stp/>
@@ -369,8 +387,42 @@
         <stp>現在値詳細時刻</stp>
         <tr r="D2" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.616c42bbcdf84a8489c04bbed37d8b1d">
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp>
+        <v>1969</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp>
+        <v>2453</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>3634</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
       <tp t="s">
         <v>15:24:59</v>
         <stp/>
@@ -381,38 +433,9 @@
         <tr r="D4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.616c42bbcdf84a8489c04bbed37d8b1d">
+    <main first="rtdsrv.78500be255f940fc894ac13b6c876746">
       <tp>
-        <v>1983</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.616c42bbcdf84a8489c04bbed37d8b1d">
-      <tp>
-        <v>2493</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>3610</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-      <tp>
-        <v>2451</v>
+        <v>2467.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -421,7 +444,7 @@
         <tr r="E3" s="1"/>
       </tp>
       <tp>
-        <v>3616</v>
+        <v>3523</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -429,15 +452,8 @@
         <stp>現在値</stp>
         <tr r="E2" s="1"/>
       </tp>
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
+    </main>
+    <main first="rtdsrv.78500be255f940fc894ac13b6c876746">
       <tp>
         <v>1972</v>
         <stp/>
@@ -446,24 +462,6 @@
         <stp>83060.T</stp>
         <stp>現在値</stp>
         <tr r="E4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
       </tp>
     </main>
   </volType>
@@ -834,7 +832,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/07/01</v>
+        <v>2025/07/02</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -842,11 +840,11 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3616</v>
+        <v>3523</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3610</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -859,7 +857,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/07/01</v>
+        <v>2025/07/02</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -867,11 +865,11 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2451</v>
+        <v>2467.5</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2493</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -884,7 +882,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/07/01</v>
+        <v>2025/07/02</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -896,7 +894,7 @@
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1983</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1">

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9288D8A-F12E-48A5-B01D-26AD2958DF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527E580A-E492-4598-9906-FB165DC94092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15870" yWindow="255" windowWidth="12600" windowHeight="11835" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -321,9 +321,27 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.78500be255f940fc894ac13b6c876746">
+    <main first="rtdsrv.04c8a9bf58214c60a93421af3c84b4be">
       <tp t="s">
-        <v>2025/07/02</v>
+        <v>2025/07/03</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/03</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/03</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -331,26 +349,84 @@
         <stp>現在日付</stp>
         <tr r="C3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.04c8a9bf58214c60a93421af3c84b4be">
+      <tp>
+        <v>3504</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
       <tp t="s">
-        <v>2025/07/02</v>
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+      <tp>
+        <v>2465.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>1973.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
-      </tp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.04c8a9bf58214c60a93421af3c84b4be">
       <tp t="s">
-        <v>2025/07/02</v>
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱重工業</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>70110.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C2" s="1"/>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.78500be255f940fc894ac13b6c876746">
+    <main first="rtdsrv.04c8a9bf58214c60a93421af3c84b4be">
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
       <tp t="s">
         <v>三菱ＵＦＪフィナンシャルＧ</v>
         <stp/>
@@ -360,82 +436,17 @@
         <stp>銘柄名称</stp>
         <tr r="B4" s="1"/>
       </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
+      <tp>
+        <v>3466</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
       </tp>
       <tp>
-        <v>1969</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp>
-        <v>2453</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>3634</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.78500be255f940fc894ac13b6c876746">
-      <tp>
-        <v>2467.5</v>
+        <v>2505</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -443,19 +454,10 @@
         <stp>現在値</stp>
         <tr r="E3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.04c8a9bf58214c60a93421af3c84b4be">
       <tp>
-        <v>3523</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.78500be255f940fc894ac13b6c876746">
-      <tp>
-        <v>1972</v>
+        <v>1985</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -832,7 +834,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/07/02</v>
+        <v>2025/07/03</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -840,11 +842,11 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3523</v>
+        <v>3466</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3634</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -857,7 +859,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/07/02</v>
+        <v>2025/07/03</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -865,11 +867,11 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2467.5</v>
+        <v>2505</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2453</v>
+        <v>2465.5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -882,7 +884,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/07/02</v>
+        <v>2025/07/03</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -890,11 +892,11 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1972</v>
+        <v>1985</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1969</v>
+        <v>1973.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1">

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527E580A-E492-4598-9906-FB165DC94092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E22BCEF-E783-4E22-A5F3-89CEA891F459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15870" yWindow="255" windowWidth="12600" windowHeight="11835" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -321,9 +321,27 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.04c8a9bf58214c60a93421af3c84b4be">
+    <main first="rtdsrv.9c2a1adb2c67445cbc469c0394e99d19">
       <tp t="s">
-        <v>2025/07/03</v>
+        <v>2025/07/04</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/04</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/04</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -331,28 +349,26 @@
         <stp>現在日付</stp>
         <tr r="C2" s="1"/>
       </tp>
-      <tp t="s">
-        <v>2025/07/03</v>
+      <tp>
+        <v>1986.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/03</v>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp>
+        <v>2511.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.04c8a9bf58214c60a93421af3c84b4be">
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
       <tp>
-        <v>3504</v>
+        <v>3463</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -360,6 +376,46 @@
         <stp>前日終値</stp>
         <tr r="F2" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.9c2a1adb2c67445cbc469c0394e99d19">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9c2a1adb2c67445cbc469c0394e99d19">
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
       <tp t="s">
         <v>15:24:59</v>
         <stp/>
@@ -369,44 +425,8 @@
         <stp>現在値詳細時刻</stp>
         <tr r="D2" s="1"/>
       </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-      <tp>
-        <v>2465.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>1973.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
     </main>
-    <main first="rtdsrv.04c8a9bf58214c60a93421af3c84b4be">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
+    <main first="rtdsrv.9c2a1adb2c67445cbc469c0394e99d19">
       <tp t="s">
         <v>三菱重工業</v>
         <stp/>
@@ -417,53 +437,33 @@
         <tr r="B2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.04c8a9bf58214c60a93421af3c84b4be">
-      <tp t="s">
-        <v>トヨタ自動車</v>
+    <main first="rtdsrv.9c2a1adb2c67445cbc469c0394e99d19">
+      <tp>
+        <v>2015.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+      <tp>
+        <v>2482</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
       </tp>
       <tp>
-        <v>3466</v>
+        <v>3396</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>70110.T</stp>
         <stp>現在値</stp>
         <tr r="E2" s="1"/>
-      </tp>
-      <tp>
-        <v>2505</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.04c8a9bf58214c60a93421af3c84b4be">
-      <tp>
-        <v>1985</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
       </tp>
     </main>
   </volType>
@@ -834,7 +834,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/07/03</v>
+        <v>2025/07/04</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -842,11 +842,11 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3466</v>
+        <v>3396</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3504</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -859,7 +859,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/07/03</v>
+        <v>2025/07/04</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -867,11 +867,11 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2505</v>
+        <v>2482</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2465.5</v>
+        <v>2511.5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -884,7 +884,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/07/03</v>
+        <v>2025/07/04</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -892,11 +892,11 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1985</v>
+        <v>2015.5</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1973.5</v>
+        <v>1986.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1">

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E22BCEF-E783-4E22-A5F3-89CEA891F459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75070B4-7029-4DBA-9CA1-B05748618886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15870" yWindow="255" windowWidth="12600" windowHeight="11835" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -321,9 +321,27 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.9c2a1adb2c67445cbc469c0394e99d19">
+    <main first="rtdsrv.fdf46201960842cc9b641cbe9086f5a9">
       <tp t="s">
-        <v>2025/07/04</v>
+        <v>2025/07/07</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/07</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/07</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -331,139 +349,121 @@
         <stp>現在日付</stp>
         <tr r="C3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.fdf46201960842cc9b641cbe9086f5a9">
+      <tp>
+        <v>1966.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.fdf46201960842cc9b641cbe9086f5a9">
+      <tp>
+        <v>3406</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp>
+        <v>2447.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.fdf46201960842cc9b641cbe9086f5a9">
       <tp t="s">
-        <v>2025/07/04</v>
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/07/04</v>
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>70110.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C2" s="1"/>
-      </tp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.fdf46201960842cc9b641cbe9086f5a9">
       <tp>
-        <v>1986.5</v>
+        <v>3395</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+      <tp>
+        <v>2484.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>2015.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
         <stp>前日終値</stp>
         <tr r="F4" s="1"/>
-      </tp>
-      <tp>
-        <v>2511.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>3463</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9c2a1adb2c67445cbc469c0394e99d19">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9c2a1adb2c67445cbc469c0394e99d19">
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9c2a1adb2c67445cbc469c0394e99d19">
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9c2a1adb2c67445cbc469c0394e99d19">
-      <tp>
-        <v>2015.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-      <tp>
-        <v>2482</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>3396</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
       </tp>
     </main>
   </volType>
@@ -834,7 +834,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/07/04</v>
+        <v>2025/07/07</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -842,11 +842,11 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3396</v>
+        <v>3406</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3463</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -859,7 +859,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/07/04</v>
+        <v>2025/07/07</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -867,11 +867,11 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2482</v>
+        <v>2447.5</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2511.5</v>
+        <v>2484.5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -884,7 +884,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/07/04</v>
+        <v>2025/07/07</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -892,11 +892,11 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>2015.5</v>
+        <v>1966.5</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1986.5</v>
+        <v>2015.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1">

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75070B4-7029-4DBA-9CA1-B05748618886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D19340-F620-4B29-B3F7-BC7489E3F396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15870" yWindow="255" windowWidth="12600" windowHeight="11835" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -321,9 +321,9 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.fdf46201960842cc9b641cbe9086f5a9">
+    <main first="rtdsrv.25771d08f278456dadb8ba3018d1e8e7">
       <tp t="s">
-        <v>2025/07/07</v>
+        <v>2025/07/08</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -332,7 +332,7 @@
         <tr r="C2" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/07/07</v>
+        <v>2025/07/08</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -341,7 +341,7 @@
         <tr r="C4" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/07/07</v>
+        <v>2025/07/08</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -350,120 +350,118 @@
         <tr r="C3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.fdf46201960842cc9b641cbe9086f5a9">
+    <main first="rtdsrv.25771d08f278456dadb8ba3018d1e8e7">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.25771d08f278456dadb8ba3018d1e8e7">
       <tp>
-        <v>1966.5</v>
+        <v>3408</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+      <tp>
+        <v>2453.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>3389</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp>
+        <v>2472.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp>
+        <v>1969</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.25771d08f278456dadb8ba3018d1e8e7">
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp>
+        <v>1976.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
         <stp>現在値</stp>
         <tr r="E4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.fdf46201960842cc9b641cbe9086f5a9">
-      <tp>
-        <v>3406</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-      <tp>
-        <v>2447.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.fdf46201960842cc9b641cbe9086f5a9">
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.fdf46201960842cc9b641cbe9086f5a9">
-      <tp>
-        <v>3395</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-      <tp>
-        <v>2484.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>2015.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
       </tp>
     </main>
   </volType>
@@ -834,7 +832,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/07/07</v>
+        <v>2025/07/08</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -842,11 +840,11 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3406</v>
+        <v>3389</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3395</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -859,7 +857,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/07/07</v>
+        <v>2025/07/08</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -867,11 +865,11 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2447.5</v>
+        <v>2472.5</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2484.5</v>
+        <v>2453.5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -884,7 +882,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/07/07</v>
+        <v>2025/07/08</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -892,11 +890,11 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1966.5</v>
+        <v>1976.5</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>2015.5</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1">

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D19340-F620-4B29-B3F7-BC7489E3F396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB9B463-5CE1-4832-A942-142A691D6CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15870" yWindow="255" windowWidth="12600" windowHeight="11835" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -321,9 +321,9 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.25771d08f278456dadb8ba3018d1e8e7">
+    <main first="rtdsrv.df5435c1283c47cc93b0ea670ec2bc00">
       <tp t="s">
-        <v>2025/07/08</v>
+        <v>2025/07/09</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -332,7 +332,16 @@
         <tr r="C2" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/07/08</v>
+        <v>2025/07/09</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/09</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -340,17 +349,104 @@
         <stp>現在日付</stp>
         <tr r="C4" s="1"/>
       </tp>
+      <tp>
+        <v>1978.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
       <tp t="s">
-        <v>2025/07/08</v>
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>トヨタ自動車</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.25771d08f278456dadb8ba3018d1e8e7">
+    <main first="rtdsrv.df5435c1283c47cc93b0ea670ec2bc00">
+      <tp>
+        <v>3379</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+      <tp>
+        <v>1967</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.df5435c1283c47cc93b0ea670ec2bc00">
+      <tp>
+        <v>2465</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>3289</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp>
+        <v>2484.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.df5435c1283c47cc93b0ea670ec2bc00">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.df5435c1283c47cc93b0ea670ec2bc00">
       <tp t="s">
         <v>15:24:59</v>
         <stp/>
@@ -368,100 +464,6 @@
         <stp>72030.T</stp>
         <stp>現在値詳細時刻</stp>
         <tr r="D3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.25771d08f278456dadb8ba3018d1e8e7">
-      <tp>
-        <v>3408</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-      <tp>
-        <v>2453.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>3389</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-      <tp>
-        <v>2472.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>1969</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.25771d08f278456dadb8ba3018d1e8e7">
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-      <tp>
-        <v>1976.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
       </tp>
     </main>
   </volType>
@@ -832,7 +834,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/07/08</v>
+        <v>2025/07/09</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -840,11 +842,11 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3389</v>
+        <v>3289</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3408</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -857,7 +859,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/07/08</v>
+        <v>2025/07/09</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -865,11 +867,11 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2472.5</v>
+        <v>2484.5</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2453.5</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -882,7 +884,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/07/08</v>
+        <v>2025/07/09</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -890,11 +892,11 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1976.5</v>
+        <v>1978.5</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1969</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1">

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB9B463-5CE1-4832-A942-142A691D6CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE77681F-3365-4B91-99EC-7CFA9CAAE400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15870" yWindow="255" windowWidth="12600" windowHeight="11835" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -321,9 +321,9 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.df5435c1283c47cc93b0ea670ec2bc00">
+    <main first="rtdsrv.ea4155e15d15485187f66a2586d65459">
       <tp t="s">
-        <v>2025/07/09</v>
+        <v>2025/07/10</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -332,7 +332,16 @@
         <tr r="C2" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/07/09</v>
+        <v>2025/07/10</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/10</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -340,17 +349,57 @@
         <stp>現在日付</stp>
         <tr r="C3" s="1"/>
       </tp>
-      <tp t="s">
-        <v>2025/07/09</v>
+    </main>
+    <main first="rtdsrv.ea4155e15d15485187f66a2586d65459">
+      <tp>
+        <v>3292</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+      <tp>
+        <v>3255</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp>
+        <v>2476</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp>
+        <v>2487.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>1979</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
-      </tp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ea4155e15d15485187f66a2586d65459">
       <tp>
-        <v>1978.5</v>
+        <v>1969</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -358,6 +407,8 @@
         <stp>現在値</stp>
         <tr r="E4" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.ea4155e15d15485187f66a2586d65459">
       <tp t="s">
         <v>三菱重工業</v>
         <stp/>
@@ -368,6 +419,17 @@
         <tr r="B2" s="1"/>
       </tp>
       <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ea4155e15d15485187f66a2586d65459">
+      <tp t="s">
         <v>三菱ＵＦＪフィナンシャルＧ</v>
         <stp/>
         <stp>Market</stp>
@@ -377,65 +439,25 @@
         <tr r="B4" s="1"/>
       </tp>
       <tp t="s">
-        <v>トヨタ自動車</v>
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.df5435c1283c47cc93b0ea670ec2bc00">
-      <tp>
-        <v>3379</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-      <tp>
-        <v>1967</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.df5435c1283c47cc93b0ea670ec2bc00">
-      <tp>
-        <v>2465</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>3289</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-      <tp>
-        <v>2484.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.df5435c1283c47cc93b0ea670ec2bc00">
+    <main first="rtdsrv.ea4155e15d15485187f66a2586d65459">
       <tp t="s">
         <v>15:24:59</v>
         <stp/>
@@ -444,26 +466,6 @@
         <stp>83060.T</stp>
         <stp>現在値詳細時刻</stp>
         <tr r="D4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.df5435c1283c47cc93b0ea670ec2bc00">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -834,7 +836,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/07/09</v>
+        <v>2025/07/10</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -842,11 +844,11 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3289</v>
+        <v>3255</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3379</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -859,7 +861,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/07/09</v>
+        <v>2025/07/10</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -867,11 +869,11 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2484.5</v>
+        <v>2476</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2465</v>
+        <v>2487.5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -884,7 +886,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/07/09</v>
+        <v>2025/07/10</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -892,11 +894,11 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1978.5</v>
+        <v>1969</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1967</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1">

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE77681F-3365-4B91-99EC-7CFA9CAAE400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C37AF2-C4FD-4A89-B928-C04943A3E386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15870" yWindow="255" windowWidth="12600" windowHeight="11835" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
+    <workbookView xWindow="15990" yWindow="150" windowWidth="12600" windowHeight="11835" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -321,9 +321,9 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.ea4155e15d15485187f66a2586d65459">
+    <main first="rtdsrv.946005974f6c489c8e2b6cf1ad22146e">
       <tp t="s">
-        <v>2025/07/10</v>
+        <v>2025/07/11</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -332,7 +332,16 @@
         <tr r="C2" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/07/10</v>
+        <v>2025/07/11</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/11</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -340,19 +349,8 @@
         <stp>現在日付</stp>
         <tr r="C4" s="1"/>
       </tp>
-      <tp t="s">
-        <v>2025/07/10</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ea4155e15d15485187f66a2586d65459">
       <tp>
-        <v>3292</v>
+        <v>3250</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -361,7 +359,65 @@
         <tr r="F2" s="1"/>
       </tp>
       <tp>
-        <v>3255</v>
+        <v>1972.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp>
+        <v>2013</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+      <tp>
+        <v>2473.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.946005974f6c489c8e2b6cf1ad22146e">
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.946005974f6c489c8e2b6cf1ad22146e">
+      <tp>
+        <v>3174</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -370,7 +426,7 @@
         <tr r="E2" s="1"/>
       </tp>
       <tp>
-        <v>2476</v>
+        <v>2514.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -378,65 +434,16 @@
         <stp>現在値</stp>
         <tr r="E3" s="1"/>
       </tp>
-      <tp>
-        <v>2487.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>1979</v>
+    </main>
+    <main first="rtdsrv.946005974f6c489c8e2b6cf1ad22146e">
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ea4155e15d15485187f66a2586d65459">
-      <tp>
-        <v>1969</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ea4155e15d15485187f66a2586d65459">
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ea4155e15d15485187f66a2586d65459">
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
       </tp>
       <tp t="s">
         <v>15:24:59</v>
@@ -455,17 +462,6 @@
         <stp>72030.T</stp>
         <stp>現在値詳細時刻</stp>
         <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ea4155e15d15485187f66a2586d65459">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
       </tp>
     </main>
   </volType>
@@ -836,7 +832,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/07/10</v>
+        <v>2025/07/11</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -844,11 +840,11 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3255</v>
+        <v>3174</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3292</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -861,7 +857,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/07/10</v>
+        <v>2025/07/11</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -869,11 +865,11 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2476</v>
+        <v>2514.5</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2487.5</v>
+        <v>2473.5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -886,7 +882,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/07/10</v>
+        <v>2025/07/11</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -894,11 +890,11 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1969</v>
+        <v>2013</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1979</v>
+        <v>1972.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1">

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C37AF2-C4FD-4A89-B928-C04943A3E386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE55905-FBD1-4338-8C7A-3617A236A255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15990" yWindow="150" windowWidth="12600" windowHeight="11835" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -321,9 +321,9 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.946005974f6c489c8e2b6cf1ad22146e">
+    <main first="rtdsrv.4f5f2854c542421683853836c0bc2c2c">
       <tp t="s">
-        <v>2025/07/11</v>
+        <v>2025/07/14</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -332,7 +332,7 @@
         <tr r="C2" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/07/11</v>
+        <v>2025/07/14</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -341,7 +341,7 @@
         <tr r="C3" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/07/11</v>
+        <v>2025/07/14</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -349,8 +349,99 @@
         <stp>現在日付</stp>
         <tr r="C4" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.4f5f2854c542421683853836c0bc2c2c">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4f5f2854c542421683853836c0bc2c2c">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4f5f2854c542421683853836c0bc2c2c">
       <tp>
-        <v>3250</v>
+        <v>1996</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4f5f2854c542421683853836c0bc2c2c">
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp>
+        <v>3325</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp>
+        <v>2536.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.4f5f2854c542421683853836c0bc2c2c">
+      <tp>
+        <v>3185</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -359,7 +450,7 @@
         <tr r="F2" s="1"/>
       </tp>
       <tp>
-        <v>1972.5</v>
+        <v>2007.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -368,100 +459,13 @@
         <tr r="F4" s="1"/>
       </tp>
       <tp>
-        <v>2013</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-      <tp>
-        <v>2473.5</v>
+        <v>2508</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
         <stp>前日終値</stp>
         <tr r="F3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.946005974f6c489c8e2b6cf1ad22146e">
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.946005974f6c489c8e2b6cf1ad22146e">
-      <tp>
-        <v>3174</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-      <tp>
-        <v>2514.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.946005974f6c489c8e2b6cf1ad22146e">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -832,7 +836,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/07/11</v>
+        <v>2025/07/14</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -840,11 +844,11 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3174</v>
+        <v>3325</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3250</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -857,7 +861,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/07/11</v>
+        <v>2025/07/14</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -865,11 +869,11 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2514.5</v>
+        <v>2536.5</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2473.5</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -882,7 +886,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/07/11</v>
+        <v>2025/07/14</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -890,11 +894,11 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>2013</v>
+        <v>1996</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1972.5</v>
+        <v>2007.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1">

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE55905-FBD1-4338-8C7A-3617A236A255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88995579-1480-4433-BDBB-D6187BBBF550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15990" yWindow="150" windowWidth="12600" windowHeight="11835" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
+    <workbookView xWindow="17730" yWindow="60" windowWidth="11115" windowHeight="7020" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -321,9 +321,29 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.4f5f2854c542421683853836c0bc2c2c">
+    <main first="rtdsrv.18a16b98722b4dc48bf7dbc8d2ec56ce">
       <tp t="s">
-        <v>2025/07/14</v>
+        <v>2025/07/15</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.18a16b98722b4dc48bf7dbc8d2ec56ce">
+      <tp t="s">
+        <v>2025/07/15</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/15</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -331,26 +351,8 @@
         <stp>現在日付</stp>
         <tr r="C2" s="1"/>
       </tp>
-      <tp t="s">
-        <v>2025/07/14</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/14</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4f5f2854c542421683853836c0bc2c2c">
+    </main>
+    <main first="rtdsrv.18a16b98722b4dc48bf7dbc8d2ec56ce">
       <tp t="s">
         <v>15:24:59</v>
         <stp/>
@@ -361,7 +363,16 @@
         <tr r="D4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4f5f2854c542421683853836c0bc2c2c">
+    <main first="rtdsrv.18a16b98722b4dc48bf7dbc8d2ec56ce">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
       <tp t="s">
         <v>15:24:59</v>
         <stp/>
@@ -371,19 +382,32 @@
         <stp>現在値詳細時刻</stp>
         <tr r="D2" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.18a16b98722b4dc48bf7dbc8d2ec56ce">
       <tp t="s">
-        <v>15:24:59</v>
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.18a16b98722b4dc48bf7dbc8d2ec56ce">
+      <tp t="s">
+        <v>トヨタ自動車</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4f5f2854c542421683853836c0bc2c2c">
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.18a16b98722b4dc48bf7dbc8d2ec56ce">
       <tp>
-        <v>1996</v>
+        <v>1995.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -392,7 +416,7 @@
         <tr r="E4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.4f5f2854c542421683853836c0bc2c2c">
+    <main first="rtdsrv.18a16b98722b4dc48bf7dbc8d2ec56ce">
       <tp t="s">
         <v>三菱重工業</v>
         <stp/>
@@ -402,26 +426,17 @@
         <stp>銘柄名称</stp>
         <tr r="B2" s="1"/>
       </tp>
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
+      <tp>
+        <v>2529</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
       </tp>
       <tp>
-        <v>3325</v>
+        <v>3285</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -429,43 +444,38 @@
         <stp>現在値</stp>
         <tr r="E2" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.18a16b98722b4dc48bf7dbc8d2ec56ce">
       <tp>
-        <v>2536.5</v>
+        <v>1992.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.18a16b98722b4dc48bf7dbc8d2ec56ce">
+      <tp>
+        <v>2531.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4f5f2854c542421683853836c0bc2c2c">
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.18a16b98722b4dc48bf7dbc8d2ec56ce">
       <tp>
-        <v>3185</v>
+        <v>3310</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>70110.T</stp>
         <stp>前日終値</stp>
         <tr r="F2" s="1"/>
-      </tp>
-      <tp>
-        <v>2007.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp>
-        <v>2508</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -836,7 +846,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/07/14</v>
+        <v>2025/07/15</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -844,11 +854,11 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3325</v>
+        <v>3285</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3185</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -861,7 +871,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/07/14</v>
+        <v>2025/07/15</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -869,11 +879,11 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2536.5</v>
+        <v>2529</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2508</v>
+        <v>2531.5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -886,7 +896,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/07/14</v>
+        <v>2025/07/15</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -894,11 +904,11 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1996</v>
+        <v>1995.5</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>2007.5</v>
+        <v>1992.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1">

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88995579-1480-4433-BDBB-D6187BBBF550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEE2B90-A941-4252-BA5F-6351280D507E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17730" yWindow="60" windowWidth="11115" windowHeight="7020" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
+    <workbookView xWindow="17730" yWindow="60" windowWidth="11115" windowHeight="6840" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -321,9 +321,18 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.18a16b98722b4dc48bf7dbc8d2ec56ce">
+    <main first="rtdsrv.ed9d3dbd1ee44ddba9669bfdcfcf424c">
       <tp t="s">
-        <v>2025/07/15</v>
+        <v>2025/07/16</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/16</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -331,19 +340,8 @@
         <stp>現在日付</stp>
         <tr r="C3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.18a16b98722b4dc48bf7dbc8d2ec56ce">
       <tp t="s">
-        <v>2025/07/15</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/15</v>
+        <v>2025/07/16</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -351,8 +349,93 @@
         <stp>現在日付</stp>
         <tr r="C2" s="1"/>
       </tp>
+      <tp>
+        <v>1974.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
     </main>
-    <main first="rtdsrv.18a16b98722b4dc48bf7dbc8d2ec56ce">
+    <main first="rtdsrv.ed9d3dbd1ee44ddba9669bfdcfcf424c">
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp>
+        <v>2532</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>1998.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp>
+        <v>3289</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ed9d3dbd1ee44ddba9669bfdcfcf424c">
+      <tp>
+        <v>2511</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp>
+        <v>3293</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ed9d3dbd1ee44ddba9669bfdcfcf424c">
       <tp t="s">
         <v>15:24:59</v>
         <stp/>
@@ -363,9 +446,9 @@
         <tr r="D4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.18a16b98722b4dc48bf7dbc8d2ec56ce">
+    <main first="rtdsrv.ed9d3dbd1ee44ddba9669bfdcfcf424c">
       <tp t="s">
-        <v>15:24:59</v>
+        <v>15:24:58</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -381,101 +464,6 @@
         <stp>70110.T</stp>
         <stp>現在値詳細時刻</stp>
         <tr r="D2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.18a16b98722b4dc48bf7dbc8d2ec56ce">
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.18a16b98722b4dc48bf7dbc8d2ec56ce">
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.18a16b98722b4dc48bf7dbc8d2ec56ce">
-      <tp>
-        <v>1995.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.18a16b98722b4dc48bf7dbc8d2ec56ce">
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-      <tp>
-        <v>2529</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>3285</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.18a16b98722b4dc48bf7dbc8d2ec56ce">
-      <tp>
-        <v>1992.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.18a16b98722b4dc48bf7dbc8d2ec56ce">
-      <tp>
-        <v>2531.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.18a16b98722b4dc48bf7dbc8d2ec56ce">
-      <tp>
-        <v>3310</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
       </tp>
     </main>
   </volType>
@@ -846,7 +834,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/07/15</v>
+        <v>2025/07/16</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -854,11 +842,11 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3285</v>
+        <v>3293</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3310</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -871,19 +859,19 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/07/15</v>
+        <v>2025/07/16</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:24:58</v>
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2529</v>
+        <v>2511</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2531.5</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -896,7 +884,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/07/15</v>
+        <v>2025/07/16</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -904,11 +892,11 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1995.5</v>
+        <v>1974.5</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1992.5</v>
+        <v>1998.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1">

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEE2B90-A941-4252-BA5F-6351280D507E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA32DC9A-10CD-4480-A02A-FE77028D6734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17730" yWindow="60" windowWidth="11115" windowHeight="6840" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
+    <workbookView xWindow="17685" yWindow="0" windowWidth="11115" windowHeight="6840" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -321,9 +321,18 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.ed9d3dbd1ee44ddba9669bfdcfcf424c">
+    <main first="rtdsrv.65d33751780c4bdc96e4135cf0c82e0e">
       <tp t="s">
-        <v>2025/07/16</v>
+        <v>2025/07/17</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/17</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -332,7 +341,7 @@
         <tr r="C4" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/07/16</v>
+        <v>2025/07/17</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -340,15 +349,55 @@
         <stp>現在日付</stp>
         <tr r="C3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.65d33751780c4bdc96e4135cf0c82e0e">
       <tp t="s">
-        <v>2025/07/16</v>
+        <v>三菱重工業</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>70110.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C2" s="1"/>
-      </tp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp>
+        <v>3236</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp>
+        <v>2518.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.65d33751780c4bdc96e4135cf0c82e0e">
       <tp>
         <v>1974.5</v>
         <stp/>
@@ -358,37 +407,19 @@
         <stp>現在値</stp>
         <tr r="E4" s="1"/>
       </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
     </main>
-    <main first="rtdsrv.ed9d3dbd1ee44ddba9669bfdcfcf424c">
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱重工業</v>
+    <main first="rtdsrv.65d33751780c4bdc96e4135cf0c82e0e">
+      <tp>
+        <v>3290</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
       </tp>
       <tp>
-        <v>2532</v>
+        <v>2509.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -397,7 +428,7 @@
         <tr r="F3" s="1"/>
       </tp>
       <tp>
-        <v>1998.5</v>
+        <v>1970</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -405,37 +436,28 @@
         <stp>前日終値</stp>
         <tr r="F4" s="1"/>
       </tp>
-      <tp>
-        <v>3289</v>
+    </main>
+    <main first="rtdsrv.65d33751780c4bdc96e4135cf0c82e0e">
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.ed9d3dbd1ee44ddba9669bfdcfcf424c">
-      <tp>
-        <v>2511</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>3293</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ed9d3dbd1ee44ddba9669bfdcfcf424c">
+    <main first="rtdsrv.65d33751780c4bdc96e4135cf0c82e0e">
       <tp t="s">
         <v>15:24:59</v>
         <stp/>
@@ -444,26 +466,6 @@
         <stp>83060.T</stp>
         <stp>現在値詳細時刻</stp>
         <tr r="D4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ed9d3dbd1ee44ddba9669bfdcfcf424c">
-      <tp t="s">
-        <v>15:24:58</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
       </tp>
     </main>
   </volType>
@@ -834,7 +836,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/07/16</v>
+        <v>2025/07/17</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -842,11 +844,11 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3293</v>
+        <v>3236</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3289</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -859,19 +861,19 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/07/16</v>
+        <v>2025/07/17</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
-        <v>15:24:58</v>
+        <v>15:24:59</v>
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2511</v>
+        <v>2518.5</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2532</v>
+        <v>2509.5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -884,7 +886,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/07/16</v>
+        <v>2025/07/17</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -896,7 +898,7 @@
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1998.5</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1">

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA32DC9A-10CD-4480-A02A-FE77028D6734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9511A4E-C0F2-4295-9A1D-20123CAF1C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17685" yWindow="0" windowWidth="11115" windowHeight="6840" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
+    <workbookView xWindow="16380" yWindow="330" windowWidth="12450" windowHeight="9720" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,7 +321,7 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.65d33751780c4bdc96e4135cf0c82e0e">
+    <main first="rtdsrv.e401c2da5f4a4cdb89fed175e40013a4">
       <tp t="s">
         <v>2025/07/17</v>
         <stp/>
@@ -336,21 +336,61 @@
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/17</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
         <stp>83060.T</stp>
         <stp>現在日付</stp>
         <tr r="C4" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.e401c2da5f4a4cdb89fed175e40013a4">
+      <tp>
+        <v>1974.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e401c2da5f4a4cdb89fed175e40013a4">
+      <tp>
+        <v>3236</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp>
+        <v>2518.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e401c2da5f4a4cdb89fed175e40013a4">
       <tp t="s">
-        <v>2025/07/17</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.65d33751780c4bdc96e4135cf0c82e0e">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
       <tp t="s">
         <v>三菱重工業</v>
         <stp/>
@@ -360,23 +400,14 @@
         <stp>銘柄名称</stp>
         <tr r="B2" s="1"/>
       </tp>
-      <tp>
-        <v>3236</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-      <tp>
-        <v>2518.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
       </tp>
       <tp t="s">
         <v>トヨタ自動車</v>
@@ -387,28 +418,8 @@
         <stp>銘柄名称</stp>
         <tr r="B3" s="1"/>
       </tp>
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
     </main>
-    <main first="rtdsrv.65d33751780c4bdc96e4135cf0c82e0e">
-      <tp>
-        <v>1974.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.65d33751780c4bdc96e4135cf0c82e0e">
+    <main first="rtdsrv.e401c2da5f4a4cdb89fed175e40013a4">
       <tp>
         <v>3290</v>
         <stp/>
@@ -418,6 +429,17 @@
         <stp>前日終値</stp>
         <tr r="F2" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.e401c2da5f4a4cdb89fed175e40013a4">
+      <tp>
+        <v>1970</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
       <tp>
         <v>2509.5</v>
         <stp/>
@@ -427,17 +449,6 @@
         <stp>前日終値</stp>
         <tr r="F3" s="1"/>
       </tp>
-      <tp>
-        <v>1970</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.65d33751780c4bdc96e4135cf0c82e0e">
       <tp t="s">
         <v>15:24:59</v>
         <stp/>
@@ -455,17 +466,6 @@
         <stp>72030.T</stp>
         <stp>現在値詳細時刻</stp>
         <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.65d33751780c4bdc96e4135cf0c82e0e">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
       </tp>
     </main>
   </volType>
@@ -796,7 +796,7 @@
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.875" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.625" style="10" bestFit="1" customWidth="1"/>
@@ -806,7 +806,7 @@
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -826,7 +826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -851,7 +851,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -876,7 +876,7 @@
         <v>2509.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -901,7 +901,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1">
+    <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B7" s="15"/>
     </row>
   </sheetData>

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitwa\MyProjects\kabuto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9511A4E-C0F2-4295-9A1D-20123CAF1C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CA5875-9C46-407A-8148-1A0700C2B51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16380" yWindow="330" windowWidth="12450" windowHeight="9720" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
+    <workbookView xWindow="17685" yWindow="0" windowWidth="11115" windowHeight="6735" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,9 +321,27 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.e401c2da5f4a4cdb89fed175e40013a4">
+    <main first="rtdsrv.54134f7c7dfd48de8471db94fcfa8475">
       <tp t="s">
-        <v>2025/07/17</v>
+        <v>2025/07/18</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/18</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/18</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -331,28 +349,10 @@
         <stp>現在日付</stp>
         <tr r="C2" s="1"/>
       </tp>
-      <tp t="s">
-        <v>2025/07/17</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/17</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
-      </tp>
     </main>
-    <main first="rtdsrv.e401c2da5f4a4cdb89fed175e40013a4">
+    <main first="rtdsrv.54134f7c7dfd48de8471db94fcfa8475">
       <tp>
-        <v>1974.5</v>
+        <v>1970</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -361,9 +361,18 @@
         <tr r="E4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.e401c2da5f4a4cdb89fed175e40013a4">
+    <main first="rtdsrv.54134f7c7dfd48de8471db94fcfa8475">
       <tp>
-        <v>3236</v>
+        <v>2516</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp>
+        <v>3206</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -371,19 +380,37 @@
         <stp>現在値</stp>
         <tr r="E2" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.54134f7c7dfd48de8471db94fcfa8475">
       <tp>
-        <v>2518.5</v>
+        <v>2520.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e401c2da5f4a4cdb89fed175e40013a4">
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>1971.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp>
+        <v>3237</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
       <tp t="s">
-        <v>15:24:59</v>
+        <v>15:24:58</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -392,6 +419,44 @@
         <tr r="D4" s="1"/>
       </tp>
       <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.54134f7c7dfd48de8471db94fcfa8475">
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
         <v>三菱重工業</v>
         <stp/>
         <stp>Market</stp>
@@ -399,73 +464,6 @@
         <stp>70110.T</stp>
         <stp>銘柄名称</stp>
         <tr r="B2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e401c2da5f4a4cdb89fed175e40013a4">
-      <tp>
-        <v>3290</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e401c2da5f4a4cdb89fed175e40013a4">
-      <tp>
-        <v>1970</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp>
-        <v>2509.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -796,7 +794,7 @@
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11.875" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.625" style="10" bestFit="1" customWidth="1"/>
@@ -806,7 +804,7 @@
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -826,7 +824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="23.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -836,7 +834,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/07/17</v>
+        <v>2025/07/18</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -844,14 +842,14 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3236</v>
+        <v>3206</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3290</v>
+        <v>3237</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="23.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -861,7 +859,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/07/17</v>
+        <v>2025/07/18</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -869,14 +867,14 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2518.5</v>
+        <v>2516</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2509.5</v>
+        <v>2520.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="23.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -886,22 +884,22 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/07/17</v>
+        <v>2025/07/18</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
-        <v>15:24:59</v>
+        <v>15:24:58</v>
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1974.5</v>
+        <v>1970</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1970</v>
+        <v>1971.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" s="6" customFormat="1" ht="23.25">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
@@ -921,7 +919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="23.25">
       <c r="B7" s="15"/>
     </row>
   </sheetData>

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CA5875-9C46-407A-8148-1A0700C2B51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFCC7BE-7B89-412E-92FC-860E517A3A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17685" yWindow="0" windowWidth="11115" windowHeight="6735" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
+    <workbookView xWindow="17685" yWindow="0" windowWidth="11115" windowHeight="6405" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -321,9 +321,18 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.54134f7c7dfd48de8471db94fcfa8475">
+    <main first="rtdsrv.889aea9b75be465298a01086ac7ce6c5">
       <tp t="s">
-        <v>2025/07/18</v>
+        <v>2025/07/22</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/22</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -332,7 +341,7 @@
         <tr r="C4" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/07/18</v>
+        <v>2025/07/22</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -340,19 +349,19 @@
         <stp>現在日付</stp>
         <tr r="C3" s="1"/>
       </tp>
-      <tp t="s">
-        <v>2025/07/18</v>
+    </main>
+    <main first="rtdsrv.889aea9b75be465298a01086ac7ce6c5">
+      <tp>
+        <v>3211</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>70110.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.54134f7c7dfd48de8471db94fcfa8475">
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
       <tp>
-        <v>1970</v>
+        <v>2000</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -360,10 +369,35 @@
         <stp>現在値</stp>
         <tr r="E4" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.54134f7c7dfd48de8471db94fcfa8475">
       <tp>
         <v>2516</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>1968</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp>
+        <v>3407</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp>
+        <v>2495</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -371,46 +405,37 @@
         <stp>現在値</stp>
         <tr r="E3" s="1"/>
       </tp>
-      <tp>
-        <v>3206</v>
+      <tp t="s">
+        <v>三菱重工業</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.54134f7c7dfd48de8471db94fcfa8475">
-      <tp>
-        <v>2520.5</v>
+    <main first="rtdsrv.889aea9b75be465298a01086ac7ce6c5">
+      <tp t="s">
+        <v>トヨタ自動車</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>1971.5</v>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp>
-        <v>3237</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
       </tp>
       <tp t="s">
-        <v>15:24:58</v>
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -418,6 +443,17 @@
         <stp>現在値詳細時刻</stp>
         <tr r="D4" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.889aea9b75be465298a01086ac7ce6c5">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
       <tp t="s">
         <v>15:24:59</v>
         <stp/>
@@ -426,44 +462,6 @@
         <stp>72030.T</stp>
         <stp>現在値詳細時刻</stp>
         <tr r="D3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.54134f7c7dfd48de8471db94fcfa8475">
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
       </tp>
     </main>
   </volType>
@@ -824,7 +822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="23.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -834,7 +832,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/07/18</v>
+        <v>2025/07/22</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -842,14 +840,14 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3206</v>
+        <v>3407</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3237</v>
+        <v>3211</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="23.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -859,7 +857,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/07/18</v>
+        <v>2025/07/22</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -867,14 +865,14 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2516</v>
+        <v>2495</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2520.5</v>
+        <v>2516</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="23.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -884,22 +882,22 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/07/18</v>
+        <v>2025/07/22</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
-        <v>15:24:58</v>
+        <v>15:24:59</v>
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>1970</v>
+        <v>2000</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1971.5</v>
+        <v>1968</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" ht="23.25">
+    <row r="5" spans="1:6" s="6" customFormat="1">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
@@ -919,7 +917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="23.25">
+    <row r="7" spans="1:6">
       <c r="B7" s="15"/>
     </row>
   </sheetData>

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFCC7BE-7B89-412E-92FC-860E517A3A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE71E85-F88E-4371-A7B9-8B02CA5C8FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17685" yWindow="0" windowWidth="11115" windowHeight="6405" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -321,9 +321,27 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.889aea9b75be465298a01086ac7ce6c5">
+    <main first="rtdsrv.c4731719e3084f04b973fd3a58563673">
       <tp t="s">
-        <v>2025/07/22</v>
+        <v>2025/07/23</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/23</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/23</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -331,28 +349,70 @@
         <stp>現在日付</stp>
         <tr r="C2" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.c4731719e3084f04b973fd3a58563673">
       <tp t="s">
-        <v>2025/07/22</v>
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
-      </tp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c4731719e3084f04b973fd3a58563673">
       <tp t="s">
-        <v>2025/07/22</v>
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.889aea9b75be465298a01086ac7ce6c5">
+    <main first="rtdsrv.c4731719e3084f04b973fd3a58563673">
       <tp>
-        <v>3211</v>
+        <v>2090.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c4731719e3084f04b973fd3a58563673">
+      <tp>
+        <v>2000</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp>
+        <v>2496.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>3410</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -360,35 +420,37 @@
         <stp>前日終値</stp>
         <tr r="F2" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.c4731719e3084f04b973fd3a58563673">
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
       <tp>
-        <v>2000</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
+        <v>2849.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
         <stp>現在値</stp>
-        <tr r="E4" s="1"/>
+        <tr r="E3" s="1"/>
       </tp>
       <tp>
-        <v>2516</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>1968</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp>
-        <v>3407</v>
+        <v>3401</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -396,15 +458,6 @@
         <stp>現在値</stp>
         <tr r="E2" s="1"/>
       </tp>
-      <tp>
-        <v>2495</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
       <tp t="s">
         <v>三菱重工業</v>
         <stp/>
@@ -413,55 +466,6 @@
         <stp>70110.T</stp>
         <stp>銘柄名称</stp>
         <tr r="B2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.889aea9b75be465298a01086ac7ce6c5">
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.889aea9b75be465298a01086ac7ce6c5">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -832,7 +836,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/07/22</v>
+        <v>2025/07/23</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -840,11 +844,11 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3407</v>
+        <v>3401</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3211</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -857,7 +861,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/07/22</v>
+        <v>2025/07/23</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -865,11 +869,11 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2495</v>
+        <v>2849.5</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2516</v>
+        <v>2496.5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -882,7 +886,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/07/22</v>
+        <v>2025/07/23</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -890,11 +894,11 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>2000</v>
+        <v>2090.5</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>1968</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1">

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE71E85-F88E-4371-A7B9-8B02CA5C8FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075F2636-E2A5-4BF3-A1DE-21B6EE4E042F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17685" yWindow="0" windowWidth="11115" windowHeight="6405" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -321,9 +321,9 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.c4731719e3084f04b973fd3a58563673">
+    <main first="rtdsrv.38704abd21c142c58c5ff3f6c407923d">
       <tp t="s">
-        <v>2025/07/23</v>
+        <v>2025/07/24</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -332,7 +332,7 @@
         <tr r="C3" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/07/23</v>
+        <v>2025/07/24</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -341,7 +341,7 @@
         <tr r="C4" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/07/23</v>
+        <v>2025/07/24</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -349,8 +349,6 @@
         <stp>現在日付</stp>
         <tr r="C2" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.c4731719e3084f04b973fd3a58563673">
       <tp t="s">
         <v>15:24:59</v>
         <stp/>
@@ -361,7 +359,7 @@
         <tr r="D4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.c4731719e3084f04b973fd3a58563673">
+    <main first="rtdsrv.38704abd21c142c58c5ff3f6c407923d">
       <tp t="s">
         <v>15:24:59</v>
         <stp/>
@@ -381,9 +379,27 @@
         <tr r="D2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.c4731719e3084f04b973fd3a58563673">
+    <main first="rtdsrv.38704abd21c142c58c5ff3f6c407923d">
       <tp>
-        <v>2090.5</v>
+        <v>2097.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp>
+        <v>2854.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>2167.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -391,28 +407,8 @@
         <stp>現在値</stp>
         <tr r="E4" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.c4731719e3084f04b973fd3a58563673">
       <tp>
-        <v>2000</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp>
-        <v>2496.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>3410</v>
+        <v>3405</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -421,7 +417,7 @@
         <tr r="F2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.c4731719e3084f04b973fd3a58563673">
+    <main first="rtdsrv.38704abd21c142c58c5ff3f6c407923d">
       <tp t="s">
         <v>三菱ＵＦＪフィナンシャルＧ</v>
         <stp/>
@@ -440,8 +436,19 @@
         <stp>銘柄名称</stp>
         <tr r="B3" s="1"/>
       </tp>
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.38704abd21c142c58c5ff3f6c407923d">
       <tp>
-        <v>2849.5</v>
+        <v>2837</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -450,22 +457,13 @@
         <tr r="E3" s="1"/>
       </tp>
       <tp>
-        <v>3401</v>
+        <v>3594</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>70110.T</stp>
         <stp>現在値</stp>
         <tr r="E2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
       </tp>
     </main>
   </volType>
@@ -836,7 +834,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/07/23</v>
+        <v>2025/07/24</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -844,11 +842,11 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3401</v>
+        <v>3594</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3410</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -861,7 +859,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/07/23</v>
+        <v>2025/07/24</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -869,11 +867,11 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2849.5</v>
+        <v>2837</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2496.5</v>
+        <v>2854.5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -886,7 +884,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/07/23</v>
+        <v>2025/07/24</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -894,11 +892,11 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>2090.5</v>
+        <v>2167.5</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>2000</v>
+        <v>2097.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1">

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075F2636-E2A5-4BF3-A1DE-21B6EE4E042F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841710DF-7C09-4981-B815-3722A08481F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17685" yWindow="0" windowWidth="11115" windowHeight="6405" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -321,9 +321,18 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.38704abd21c142c58c5ff3f6c407923d">
+    <main first="rtdsrv.02e8d62c10924a67820b81caa900d777">
       <tp t="s">
-        <v>2025/07/24</v>
+        <v>2025/07/25</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/25</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -332,16 +341,7 @@
         <tr r="C3" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/07/24</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/24</v>
+        <v>2025/07/25</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -349,6 +349,82 @@
         <stp>現在日付</stp>
         <tr r="C2" s="1"/>
       </tp>
+      <tp>
+        <v>2844.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>2171.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+      <tp>
+        <v>3594</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.02e8d62c10924a67820b81caa900d777">
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.02e8d62c10924a67820b81caa900d777">
       <tp t="s">
         <v>15:24:59</v>
         <stp/>
@@ -359,111 +435,35 @@
         <tr r="D4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.38704abd21c142c58c5ff3f6c407923d">
-      <tp t="s">
-        <v>15:24:59</v>
+    <main first="rtdsrv.02e8d62c10924a67820b81caa900d777">
+      <tp>
+        <v>2775.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp>
+        <v>3562</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.38704abd21c142c58c5ff3f6c407923d">
+    <main first="rtdsrv.02e8d62c10924a67820b81caa900d777">
       <tp>
-        <v>2097.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp>
-        <v>2854.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-      <tp>
-        <v>2167.5</v>
+        <v>2154</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
         <stp>現在値</stp>
         <tr r="E4" s="1"/>
-      </tp>
-      <tp>
-        <v>3405</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.38704abd21c142c58c5ff3f6c407923d">
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.38704abd21c142c58c5ff3f6c407923d">
-      <tp>
-        <v>2837</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>3594</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
       </tp>
     </main>
   </volType>
@@ -834,7 +834,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/07/24</v>
+        <v>2025/07/25</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -842,11 +842,11 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3594</v>
+        <v>3562</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3405</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -859,7 +859,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/07/24</v>
+        <v>2025/07/25</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -867,11 +867,11 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2837</v>
+        <v>2775.5</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2854.5</v>
+        <v>2844.5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -884,7 +884,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/07/24</v>
+        <v>2025/07/25</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -892,11 +892,11 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>2167.5</v>
+        <v>2154</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>2097.5</v>
+        <v>2171.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1">

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841710DF-7C09-4981-B815-3722A08481F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC58CEF-1622-440E-AAF8-E3575E6DD9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17685" yWindow="0" windowWidth="11115" windowHeight="6405" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -321,9 +321,31 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.02e8d62c10924a67820b81caa900d777">
+    <main first="rtdsrv.d24d687401504a478616e817e8c0903f">
       <tp t="s">
-        <v>2025/07/25</v>
+        <v>2025/07/28</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d24d687401504a478616e817e8c0903f">
+      <tp t="s">
+        <v>2025/07/28</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d24d687401504a478616e817e8c0903f">
+      <tp t="s">
+        <v>2025/07/28</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -331,26 +353,41 @@
         <stp>現在日付</stp>
         <tr r="C4" s="1"/>
       </tp>
-      <tp t="s">
-        <v>2025/07/25</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>2025/07/25</v>
+    </main>
+    <main first="rtdsrv.d24d687401504a478616e817e8c0903f">
+      <tp>
+        <v>2110</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d24d687401504a478616e817e8c0903f">
+      <tp>
+        <v>3575</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>70110.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C2" s="1"/>
-      </tp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d24d687401504a478616e817e8c0903f">
       <tp>
-        <v>2844.5</v>
+        <v>2157</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp>
+        <v>2787</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -358,14 +395,78 @@
         <stp>前日終値</stp>
         <tr r="F3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.d24d687401504a478616e817e8c0903f">
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d24d687401504a478616e817e8c0903f">
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d24d687401504a478616e817e8c0903f">
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d24d687401504a478616e817e8c0903f">
       <tp>
-        <v>2171.5</v>
+        <v>3540</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp>
+        <v>2811</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d24d687401504a478616e817e8c0903f">
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
       </tp>
       <tp t="s">
         <v>15:24:59</v>
@@ -375,95 +476,6 @@
         <stp>72030.T</stp>
         <stp>現在値詳細時刻</stp>
         <tr r="D3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-      <tp>
-        <v>3594</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.02e8d62c10924a67820b81caa900d777">
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.02e8d62c10924a67820b81caa900d777">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.02e8d62c10924a67820b81caa900d777">
-      <tp>
-        <v>2775.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>3562</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.02e8d62c10924a67820b81caa900d777">
-      <tp>
-        <v>2154</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
       </tp>
     </main>
   </volType>
@@ -834,7 +846,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/07/25</v>
+        <v>2025/07/28</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -842,11 +854,11 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3562</v>
+        <v>3540</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3594</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -859,7 +871,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/07/25</v>
+        <v>2025/07/28</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -867,11 +879,11 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2775.5</v>
+        <v>2811</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2844.5</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -884,7 +896,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/07/25</v>
+        <v>2025/07/28</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -892,11 +904,11 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>2154</v>
+        <v>2110</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>2171.5</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1">

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC58CEF-1622-440E-AAF8-E3575E6DD9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D725CD4F-E5C4-40C4-9EE6-878DF3C6DF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17685" yWindow="0" windowWidth="11115" windowHeight="6405" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -321,9 +321,9 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.d24d687401504a478616e817e8c0903f">
+    <main first="rtdsrv.16b16847aba6494d8539d4f6fb073525">
       <tp t="s">
-        <v>2025/07/28</v>
+        <v>2025/07/29</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -331,10 +331,8 @@
         <stp>現在日付</stp>
         <tr r="C2" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.d24d687401504a478616e817e8c0903f">
       <tp t="s">
-        <v>2025/07/28</v>
+        <v>2025/07/29</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -342,10 +340,8 @@
         <stp>現在日付</stp>
         <tr r="C3" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.d24d687401504a478616e817e8c0903f">
       <tp t="s">
-        <v>2025/07/28</v>
+        <v>2025/07/29</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -353,129 +349,123 @@
         <stp>現在日付</stp>
         <tr r="C4" s="1"/>
       </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
     </main>
-    <main first="rtdsrv.d24d687401504a478616e817e8c0903f">
+    <main first="rtdsrv.16b16847aba6494d8539d4f6fb073525">
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.16b16847aba6494d8539d4f6fb073525">
       <tp>
-        <v>2110</v>
+        <v>3530</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+      <tp>
+        <v>2105.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.16b16847aba6494d8539d4f6fb073525">
+      <tp>
+        <v>2805</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.16b16847aba6494d8539d4f6fb073525">
+      <tp>
+        <v>3471</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp>
+        <v>2738</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.16b16847aba6494d8539d4f6fb073525">
+      <tp>
+        <v>2074</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
         <stp>現在値</stp>
         <tr r="E4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d24d687401504a478616e817e8c0903f">
-      <tp>
-        <v>3575</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d24d687401504a478616e817e8c0903f">
-      <tp>
-        <v>2157</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp>
-        <v>2787</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d24d687401504a478616e817e8c0903f">
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d24d687401504a478616e817e8c0903f">
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d24d687401504a478616e817e8c0903f">
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d24d687401504a478616e817e8c0903f">
-      <tp>
-        <v>3540</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-      <tp>
-        <v>2811</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d24d687401504a478616e817e8c0903f">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -846,7 +836,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/07/28</v>
+        <v>2025/07/29</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -854,11 +844,11 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3540</v>
+        <v>3471</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3575</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -871,7 +861,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/07/28</v>
+        <v>2025/07/29</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -879,11 +869,11 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2811</v>
+        <v>2738</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2787</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -896,7 +886,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/07/28</v>
+        <v>2025/07/29</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -904,11 +894,11 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>2110</v>
+        <v>2074</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>2157</v>
+        <v>2105.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1">

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D725CD4F-E5C4-40C4-9EE6-878DF3C6DF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0CF26D-06D5-4913-8540-404EE234B906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17685" yWindow="0" windowWidth="11115" windowHeight="6405" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -321,9 +321,9 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.16b16847aba6494d8539d4f6fb073525">
+    <main first="rtdsrv.e363a018458047dbbcad7e37e23eb9f3">
       <tp t="s">
-        <v>2025/07/29</v>
+        <v>2025/07/30</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -332,7 +332,16 @@
         <tr r="C2" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/07/29</v>
+        <v>2025/07/30</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/30</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -340,14 +349,36 @@
         <stp>現在日付</stp>
         <tr r="C3" s="1"/>
       </tp>
-      <tp t="s">
-        <v>2025/07/29</v>
+    </main>
+    <main first="rtdsrv.e363a018458047dbbcad7e37e23eb9f3">
+      <tp>
+        <v>3479</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e363a018458047dbbcad7e37e23eb9f3">
+      <tp>
+        <v>2741.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+      <tp>
+        <v>2071.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C4" s="1"/>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
       </tp>
       <tp t="s">
         <v>15:24:59</v>
@@ -368,7 +399,7 @@
         <tr r="D3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.16b16847aba6494d8539d4f6fb073525">
+    <main first="rtdsrv.e363a018458047dbbcad7e37e23eb9f3">
       <tp t="s">
         <v>三菱重工業</v>
         <stp/>
@@ -379,6 +410,24 @@
         <tr r="B2" s="1"/>
       </tp>
       <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+      <tp t="s">
         <v>三菱ＵＦＪフィナンシャルＧ</v>
         <stp/>
         <stp>Market</stp>
@@ -387,59 +436,10 @@
         <stp>銘柄名称</stp>
         <tr r="B4" s="1"/>
       </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
     </main>
-    <main first="rtdsrv.16b16847aba6494d8539d4f6fb073525">
+    <main first="rtdsrv.e363a018458047dbbcad7e37e23eb9f3">
       <tp>
-        <v>3530</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-      <tp>
-        <v>2105.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.16b16847aba6494d8539d4f6fb073525">
-      <tp>
-        <v>2805</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.16b16847aba6494d8539d4f6fb073525">
-      <tp>
-        <v>3471</v>
+        <v>3613</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -448,7 +448,7 @@
         <tr r="E2" s="1"/>
       </tp>
       <tp>
-        <v>2738</v>
+        <v>2747.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -457,9 +457,9 @@
         <tr r="E3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.16b16847aba6494d8539d4f6fb073525">
+    <main first="rtdsrv.e363a018458047dbbcad7e37e23eb9f3">
       <tp>
-        <v>2074</v>
+        <v>2091.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -836,7 +836,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/07/29</v>
+        <v>2025/07/30</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -844,11 +844,11 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3471</v>
+        <v>3613</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3530</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -861,7 +861,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/07/29</v>
+        <v>2025/07/30</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -869,11 +869,11 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2738</v>
+        <v>2747.5</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2805</v>
+        <v>2741.5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -886,7 +886,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/07/29</v>
+        <v>2025/07/30</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -894,11 +894,11 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>2074</v>
+        <v>2091.5</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>2105.5</v>
+        <v>2071.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1">

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0CF26D-06D5-4913-8540-404EE234B906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5A9F90-40CF-40E5-ADF5-3A041EDB8D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17685" yWindow="0" windowWidth="11115" windowHeight="6405" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -321,9 +321,9 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.e363a018458047dbbcad7e37e23eb9f3">
+    <main first="rtdsrv.3c7f39c5b9ad47ba8792e3246144f76f">
       <tp t="s">
-        <v>2025/07/30</v>
+        <v>2025/07/31</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -332,7 +332,16 @@
         <tr r="C2" s="1"/>
       </tp>
       <tp t="s">
-        <v>2025/07/30</v>
+        <v>2025/07/31</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在日付</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>2025/07/31</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -340,19 +349,68 @@
         <stp>現在日付</stp>
         <tr r="C4" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.3c7f39c5b9ad47ba8792e3246144f76f">
+      <tp>
+        <v>2113</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3c7f39c5b9ad47ba8792e3246144f76f">
       <tp t="s">
-        <v>2025/07/30</v>
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>トヨタ自動車</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
-        <stp>現在日付</stp>
-        <tr r="C3" s="1"/>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.e363a018458047dbbcad7e37e23eb9f3">
+    <main first="rtdsrv.3c7f39c5b9ad47ba8792e3246144f76f">
       <tp>
-        <v>3479</v>
+        <v>3627</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp>
+        <v>2696</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp>
+        <v>3610</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -360,10 +418,17 @@
         <stp>前日終値</stp>
         <tr r="F2" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.e363a018458047dbbcad7e37e23eb9f3">
       <tp>
-        <v>2741.5</v>
+        <v>2089</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp>
+        <v>2743.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -371,14 +436,16 @@
         <stp>前日終値</stp>
         <tr r="F3" s="1"/>
       </tp>
-      <tp>
-        <v>2071.5</v>
+    </main>
+    <main first="rtdsrv.3c7f39c5b9ad47ba8792e3246144f76f">
+      <tp t="s">
+        <v>15:24:59</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
       </tp>
       <tp t="s">
         <v>15:24:59</v>
@@ -397,75 +464,6 @@
         <stp>72030.T</stp>
         <stp>現在値詳細時刻</stp>
         <tr r="D3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e363a018458047dbbcad7e37e23eb9f3">
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e363a018458047dbbcad7e37e23eb9f3">
-      <tp>
-        <v>3613</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-      <tp>
-        <v>2747.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値</stp>
-        <tr r="E3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e363a018458047dbbcad7e37e23eb9f3">
-      <tp>
-        <v>2091.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値</stp>
-        <tr r="E4" s="1"/>
       </tp>
     </main>
   </volType>
@@ -836,7 +834,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/07/30</v>
+        <v>2025/07/31</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -844,11 +842,11 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3613</v>
+        <v>3627</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3479</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -861,7 +859,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/07/30</v>
+        <v>2025/07/31</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -869,11 +867,11 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2747.5</v>
+        <v>2696</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2741.5</v>
+        <v>2743.5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -886,7 +884,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/07/30</v>
+        <v>2025/07/31</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -894,11 +892,11 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>2091.5</v>
+        <v>2113</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>2071.5</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1">

--- a/targets.xlsx
+++ b/targets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\kabuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5A9F90-40CF-40E5-ADF5-3A041EDB8D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7545EDF-92D6-45E7-9EF2-538E6D2B2F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17685" yWindow="0" windowWidth="11115" windowHeight="6405" xr2:uid="{51093279-733D-4C95-9185-E5E4611C1814}"/>
   </bookViews>
@@ -321,9 +321,9 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.3c7f39c5b9ad47ba8792e3246144f76f">
+    <main first="rtdsrv.bf99fae3253c48a384984afec0df61a6">
       <tp t="s">
-        <v>2025/07/31</v>
+        <v>2025/08/01</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -331,8 +331,10 @@
         <stp>現在日付</stp>
         <tr r="C2" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.bf99fae3253c48a384984afec0df61a6">
       <tp t="s">
-        <v>2025/07/31</v>
+        <v>2025/08/01</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -340,8 +342,10 @@
         <stp>現在日付</stp>
         <tr r="C3" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.bf99fae3253c48a384984afec0df61a6">
       <tp t="s">
-        <v>2025/07/31</v>
+        <v>2025/08/01</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -350,9 +354,104 @@
         <tr r="C4" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.3c7f39c5b9ad47ba8792e3246144f76f">
+    <main first="rtdsrv.bf99fae3253c48a384984afec0df61a6">
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bf99fae3253c48a384984afec0df61a6">
+      <tp t="s">
+        <v>三菱重工業</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bf99fae3253c48a384984afec0df61a6">
+      <tp t="s">
+        <v>三菱ＵＦＪフィナンシャルＧ</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bf99fae3253c48a384984afec0df61a6">
+      <tp t="s">
+        <v>トヨタ自動車</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>銘柄名称</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bf99fae3253c48a384984afec0df61a6">
       <tp>
-        <v>2113</v>
+        <v>3630</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bf99fae3253c48a384984afec0df61a6">
+      <tp>
+        <v>2110.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>83060.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F4" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>70110.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D2" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>15:24:59</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>現在値詳細時刻</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bf99fae3253c48a384984afec0df61a6">
+      <tp>
+        <v>2696.5</v>
+        <stp/>
+        <stp>Market</stp>
+        <stp>STOCK</stp>
+        <stp>72030.T</stp>
+        <stp>前日終値</stp>
+        <tr r="F3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bf99fae3253c48a384984afec0df61a6">
+      <tp>
+        <v>2129.5</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -360,39 +459,8 @@
         <stp>現在値</stp>
         <tr r="E4" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.3c7f39c5b9ad47ba8792e3246144f76f">
-      <tp t="s">
-        <v>三菱重工業</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>三菱ＵＦＪフィナンシャルＧ</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>トヨタ自動車</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>銘柄名称</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3c7f39c5b9ad47ba8792e3246144f76f">
       <tp>
-        <v>3627</v>
+        <v>3605</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
@@ -401,69 +469,13 @@
         <tr r="E2" s="1"/>
       </tp>
       <tp>
-        <v>2696</v>
+        <v>2728</v>
         <stp/>
         <stp>Market</stp>
         <stp>STOCK</stp>
         <stp>72030.T</stp>
         <stp>現在値</stp>
         <tr r="E3" s="1"/>
-      </tp>
-      <tp>
-        <v>3610</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F2" s="1"/>
-      </tp>
-      <tp>
-        <v>2089</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F4" s="1"/>
-      </tp>
-      <tp>
-        <v>2743.5</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>前日終値</stp>
-        <tr r="F3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3c7f39c5b9ad47ba8792e3246144f76f">
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>83060.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D4" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>70110.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>15:24:59</v>
-        <stp/>
-        <stp>Market</stp>
-        <stp>STOCK</stp>
-        <stp>72030.T</stp>
-        <stp>現在値詳細時刻</stp>
-        <tr r="D3" s="1"/>
       </tp>
     </main>
   </volType>
@@ -834,7 +846,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>_xll.RssMarket($A2, C$1)</f>
-        <v>2025/07/31</v>
+        <v>2025/08/01</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>_xll.RssMarket($A2, D$1)</f>
@@ -842,11 +854,11 @@
       </c>
       <c r="E2" s="8">
         <f>_xll.RssMarket($A2, E$1)</f>
-        <v>3627</v>
+        <v>3605</v>
       </c>
       <c r="F2" s="8">
         <f>_xll.RssMarket($A2, F$1)</f>
-        <v>3610</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -859,7 +871,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>_xll.RssMarket($A3, C$1)</f>
-        <v>2025/07/31</v>
+        <v>2025/08/01</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>_xll.RssMarket($A3, D$1)</f>
@@ -867,11 +879,11 @@
       </c>
       <c r="E3" s="8">
         <f>_xll.RssMarket($A3, E$1)</f>
-        <v>2696</v>
+        <v>2728</v>
       </c>
       <c r="F3" s="8">
         <f>_xll.RssMarket($A3, F$1)</f>
-        <v>2743.5</v>
+        <v>2696.5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -884,7 +896,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>_xll.RssMarket($A4, C$1)</f>
-        <v>2025/07/31</v>
+        <v>2025/08/01</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>_xll.RssMarket($A4, D$1)</f>
@@ -892,11 +904,11 @@
       </c>
       <c r="E4" s="8">
         <f>_xll.RssMarket($A4, E$1)</f>
-        <v>2113</v>
+        <v>2129.5</v>
       </c>
       <c r="F4" s="8">
         <f>_xll.RssMarket($A4, F$1)</f>
-        <v>2089</v>
+        <v>2110.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1">
